--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -165,9 +165,6 @@
     <t>allweek</t>
   </si>
   <si>
-    <t>01.03.2022</t>
-  </si>
-  <si>
     <t>start_time_0</t>
   </si>
   <si>
@@ -249,7 +246,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>22/04/2022</t>
+    <t>24.06.2022</t>
+  </si>
+  <si>
+    <t>11.07.2022</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1071,10 +1073,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.09765625" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1137,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
         <v>75</v>
@@ -1149,7 +1155,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A2:B2 K2 E2:I2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K1 A2:B2 K2 E2:H2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1167,49 +1173,49 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1217,46 +1223,46 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>69</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>70</v>
       </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
       </c>
       <c r="P2">
         <v>30</v>
@@ -1267,37 +1273,37 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>66</v>
       </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>68</v>
       </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -1308,46 +1314,46 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
       </c>
       <c r="P4">
         <v>30</v>
@@ -1358,37 +1364,37 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
       </c>
       <c r="M5">
         <v>15</v>
@@ -1399,46 +1405,46 @@
         <v>10005</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>66</v>
       </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>67</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
         <v>68</v>
       </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>69</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
         <v>70</v>
       </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>71</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
       </c>
       <c r="P6">
         <v>30</v>
@@ -1449,46 +1455,46 @@
         <v>10006</v>
       </c>
       <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>66</v>
       </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
       </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>69</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
         <v>70</v>
       </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
       </c>
       <c r="P7">
         <v>30</v>
@@ -1499,28 +1505,28 @@
         <v>10007</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>68</v>
       </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
       </c>
       <c r="J8">
         <v>15</v>
@@ -1531,46 +1537,46 @@
         <v>10008</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
         <v>70</v>
       </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
       </c>
       <c r="P9">
         <v>30</v>
@@ -1581,28 +1587,28 @@
         <v>10009</v>
       </c>
       <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -1613,46 +1619,46 @@
         <v>10010</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
         <v>68</v>
       </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
         <v>70</v>
       </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>71</v>
-      </c>
-      <c r="O11" t="s">
-        <v>72</v>
       </c>
       <c r="P11">
         <v>30</v>
@@ -1663,46 +1669,46 @@
         <v>10011</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="J12">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>69</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
         <v>70</v>
       </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>71</v>
-      </c>
-      <c r="O12" t="s">
-        <v>72</v>
       </c>
       <c r="P12">
         <v>30</v>
@@ -1713,46 +1719,46 @@
         <v>10012</v>
       </c>
       <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="J13">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
         <v>70</v>
       </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>71</v>
-      </c>
-      <c r="O13" t="s">
-        <v>72</v>
       </c>
       <c r="P13">
         <v>30</v>
@@ -1763,46 +1769,46 @@
         <v>10013</v>
       </c>
       <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
         <v>68</v>
       </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
         <v>70</v>
       </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>71</v>
-      </c>
-      <c r="O14" t="s">
-        <v>72</v>
       </c>
       <c r="P14">
         <v>30</v>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nodeproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jsdev\nodeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -249,7 +249,7 @@
     <t>24.06.2022</t>
   </si>
   <si>
-    <t>11.07.2022</t>
+    <t>16.07.2022</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="optional_inputs" sheetId="1" r:id="rId1"/>
@@ -807,9 +807,6 @@
     <t>22.07.2022</t>
   </si>
   <si>
-    <t>06.08.2022</t>
-  </si>
-  <si>
     <t>start_time_5</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>10.45</t>
+  </si>
+  <si>
+    <t>30.08.2022</t>
   </si>
 </sst>
 </file>
@@ -6744,8 +6744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6819,7 +6819,7 @@
         <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K2">
         <v>0.5</v>
@@ -6837,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -6897,13 +6897,13 @@
         <v>49</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -6920,25 +6920,25 @@
         <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J2" s="3">
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>52</v>
@@ -6956,7 +6956,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>55</v>
@@ -6979,16 +6979,16 @@
         <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="3">
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I3" s="3">
         <v>10.45</v>
@@ -6997,7 +6997,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>52</v>
@@ -7015,7 +7015,7 @@
         <v>30</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>55</v>
@@ -7038,16 +7038,16 @@
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I4" s="3">
         <v>10.45</v>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>52</v>
@@ -7074,7 +7074,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>55</v>
@@ -7097,16 +7097,16 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I5" s="3">
         <v>10.45</v>
@@ -7115,7 +7115,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>52</v>
@@ -7133,7 +7133,7 @@
         <v>30</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>55</v>
@@ -7156,16 +7156,16 @@
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="3">
         <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I6" s="3">
         <v>10.45</v>
@@ -7174,7 +7174,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>52</v>
@@ -7192,7 +7192,7 @@
         <v>30</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>55</v>
@@ -7215,16 +7215,16 @@
         <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" s="3">
         <v>10.45</v>
@@ -7233,7 +7233,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>52</v>
@@ -7251,7 +7251,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>55</v>
@@ -7274,16 +7274,16 @@
         <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" s="3">
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" s="3">
         <v>10.45</v>
@@ -7292,7 +7292,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>52</v>
@@ -7310,7 +7310,7 @@
         <v>30</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>55</v>
@@ -7333,16 +7333,16 @@
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G9" s="3">
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I9" s="3">
         <v>10.45</v>
@@ -7351,7 +7351,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>52</v>
@@ -7369,7 +7369,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>55</v>
@@ -7392,16 +7392,16 @@
         <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="3">
         <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I10" s="3">
         <v>10.45</v>
@@ -7410,7 +7410,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>52</v>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>55</v>
@@ -7451,16 +7451,16 @@
         <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="3">
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I11" s="3">
         <v>10.45</v>
@@ -7469,7 +7469,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>52</v>
@@ -7487,7 +7487,7 @@
         <v>30</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>55</v>
@@ -7510,16 +7510,16 @@
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="3">
         <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I12" s="3">
         <v>10.45</v>
@@ -7528,7 +7528,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>52</v>
@@ -7546,7 +7546,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>55</v>
@@ -7569,16 +7569,16 @@
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="3">
         <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I13" s="3">
         <v>10.45</v>
@@ -7587,7 +7587,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>52</v>
@@ -7605,7 +7605,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>55</v>
@@ -7628,16 +7628,16 @@
         <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I14" s="3">
         <v>10.45</v>
@@ -7646,7 +7646,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>52</v>
@@ -7664,7 +7664,7 @@
         <v>30</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>55</v>
@@ -7687,16 +7687,16 @@
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="3">
         <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" s="3">
         <v>10.45</v>
@@ -7705,7 +7705,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>52</v>
@@ -7723,7 +7723,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>55</v>
@@ -7746,16 +7746,16 @@
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="3">
         <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I16" s="3">
         <v>10.45</v>
@@ -7764,7 +7764,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>52</v>
@@ -7782,7 +7782,7 @@
         <v>30</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>55</v>
@@ -7805,16 +7805,16 @@
         <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="3">
         <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I17" s="3">
         <v>10.45</v>
@@ -7823,7 +7823,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>52</v>
@@ -7841,7 +7841,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>55</v>
@@ -7864,16 +7864,16 @@
         <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="3">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I18" s="3">
         <v>10.45</v>
@@ -7882,7 +7882,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>52</v>
@@ -7900,7 +7900,7 @@
         <v>30</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>55</v>
@@ -7923,16 +7923,16 @@
         <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="3">
         <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I19" s="3">
         <v>10.45</v>
@@ -7941,7 +7941,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>52</v>
@@ -7959,7 +7959,7 @@
         <v>30</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>55</v>
@@ -7982,16 +7982,16 @@
         <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="3">
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I20" s="3">
         <v>10.45</v>
@@ -8000,7 +8000,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>52</v>
@@ -8018,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>55</v>
@@ -8041,16 +8041,16 @@
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G21" s="3">
         <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I21" s="3">
         <v>10.45</v>
@@ -8059,7 +8059,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>52</v>
@@ -8077,7 +8077,7 @@
         <v>30</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>55</v>
@@ -8100,16 +8100,16 @@
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="3">
         <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I22" s="3">
         <v>10.45</v>
@@ -8118,7 +8118,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>52</v>
@@ -8136,7 +8136,7 @@
         <v>30</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>55</v>
@@ -8159,16 +8159,16 @@
         <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="3">
         <v>30</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I23" s="3">
         <v>10.45</v>
@@ -8177,7 +8177,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>52</v>
@@ -8195,7 +8195,7 @@
         <v>30</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>55</v>
@@ -8218,16 +8218,16 @@
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G24" s="3">
         <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" s="3">
         <v>10.45</v>
@@ -8236,7 +8236,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>52</v>
@@ -8254,7 +8254,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>55</v>
@@ -8277,16 +8277,16 @@
         <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="3">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="3">
         <v>10.45</v>
@@ -8295,7 +8295,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>52</v>
@@ -8313,7 +8313,7 @@
         <v>30</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>55</v>
@@ -8336,16 +8336,16 @@
         <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G26" s="3">
         <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I26" s="3">
         <v>10.45</v>
@@ -8354,7 +8354,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>52</v>
@@ -8372,7 +8372,7 @@
         <v>30</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>55</v>
@@ -8395,16 +8395,16 @@
         <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="3">
         <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I27" s="3">
         <v>10.45</v>
@@ -8413,7 +8413,7 @@
         <v>15</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>52</v>
@@ -8431,7 +8431,7 @@
         <v>30</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>55</v>
@@ -8454,16 +8454,16 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" s="3">
         <v>30</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I28" s="3">
         <v>10.45</v>
@@ -8472,7 +8472,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>52</v>
@@ -8490,7 +8490,7 @@
         <v>30</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>55</v>
@@ -8513,16 +8513,16 @@
         <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G29" s="3">
         <v>30</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I29" s="3">
         <v>10.45</v>
@@ -8531,7 +8531,7 @@
         <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>52</v>
@@ -8549,7 +8549,7 @@
         <v>30</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>55</v>
@@ -8572,16 +8572,16 @@
         <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G30" s="3">
         <v>30</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I30" s="3">
         <v>10.45</v>
@@ -8590,7 +8590,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>52</v>
@@ -8608,7 +8608,7 @@
         <v>30</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>55</v>
@@ -8631,16 +8631,16 @@
         <v>60</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I31" s="3">
         <v>10.45</v>
@@ -8649,7 +8649,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>52</v>
@@ -8667,7 +8667,7 @@
         <v>30</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>55</v>
@@ -8690,16 +8690,16 @@
         <v>60</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="3">
         <v>30</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I32" s="3">
         <v>10.45</v>
@@ -8708,7 +8708,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>52</v>
@@ -8726,7 +8726,7 @@
         <v>30</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>55</v>
@@ -8749,16 +8749,16 @@
         <v>60</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G33" s="3">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I33" s="3">
         <v>10.45</v>
@@ -8767,7 +8767,7 @@
         <v>15</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>52</v>
@@ -8785,7 +8785,7 @@
         <v>30</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>55</v>
@@ -8808,16 +8808,16 @@
         <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G34" s="3">
         <v>30</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I34" s="3">
         <v>10.45</v>
@@ -8826,7 +8826,7 @@
         <v>15</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>52</v>
@@ -8844,7 +8844,7 @@
         <v>30</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>55</v>
@@ -8867,16 +8867,16 @@
         <v>60</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G35" s="3">
         <v>30</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I35" s="3">
         <v>10.45</v>
@@ -8885,7 +8885,7 @@
         <v>15</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>52</v>
@@ -8903,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>55</v>
@@ -8926,16 +8926,16 @@
         <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" s="3">
         <v>30</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I36" s="3">
         <v>10.45</v>
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>52</v>
@@ -8962,7 +8962,7 @@
         <v>30</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>55</v>
@@ -8985,16 +8985,16 @@
         <v>60</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" s="3">
         <v>30</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I37" s="3">
         <v>10.45</v>
@@ -9003,7 +9003,7 @@
         <v>15</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>52</v>
@@ -9021,7 +9021,7 @@
         <v>30</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>55</v>
@@ -9044,16 +9044,16 @@
         <v>60</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G38" s="3">
         <v>30</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I38" s="3">
         <v>10.45</v>
@@ -9062,7 +9062,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>52</v>
@@ -9080,7 +9080,7 @@
         <v>30</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>55</v>
@@ -9103,16 +9103,16 @@
         <v>60</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="3">
         <v>30</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I39" s="3">
         <v>10.45</v>
@@ -9121,7 +9121,7 @@
         <v>15</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>52</v>
@@ -9139,7 +9139,7 @@
         <v>30</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>55</v>
@@ -9162,16 +9162,16 @@
         <v>60</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G40" s="3">
         <v>30</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I40" s="3">
         <v>10.45</v>
@@ -9180,7 +9180,7 @@
         <v>15</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>52</v>
@@ -9198,7 +9198,7 @@
         <v>30</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>55</v>
@@ -9221,16 +9221,16 @@
         <v>60</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G41" s="3">
         <v>30</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I41" s="3">
         <v>10.45</v>
@@ -9239,7 +9239,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>52</v>
@@ -9257,7 +9257,7 @@
         <v>30</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>55</v>
@@ -9280,16 +9280,16 @@
         <v>60</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G42" s="3">
         <v>30</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I42" s="3">
         <v>10.45</v>
@@ -9298,7 +9298,7 @@
         <v>15</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>52</v>
@@ -9316,7 +9316,7 @@
         <v>30</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>55</v>
@@ -9339,16 +9339,16 @@
         <v>60</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G43" s="3">
         <v>30</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I43" s="3">
         <v>10.45</v>
@@ -9357,7 +9357,7 @@
         <v>15</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>52</v>
@@ -9375,7 +9375,7 @@
         <v>30</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>55</v>
@@ -9398,16 +9398,16 @@
         <v>60</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="3">
         <v>30</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I44" s="3">
         <v>10.45</v>
@@ -9416,7 +9416,7 @@
         <v>15</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>52</v>
@@ -9434,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>55</v>
@@ -9457,16 +9457,16 @@
         <v>60</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G45" s="3">
         <v>30</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I45" s="3">
         <v>10.45</v>
@@ -9475,7 +9475,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>52</v>
@@ -9493,7 +9493,7 @@
         <v>30</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>55</v>
@@ -9516,16 +9516,16 @@
         <v>60</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G46" s="3">
         <v>30</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I46" s="3">
         <v>10.45</v>
@@ -9534,7 +9534,7 @@
         <v>15</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>52</v>
@@ -9552,7 +9552,7 @@
         <v>30</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>55</v>
@@ -9575,16 +9575,16 @@
         <v>60</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G47" s="3">
         <v>30</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I47" s="3">
         <v>10.45</v>
@@ -9593,7 +9593,7 @@
         <v>15</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>52</v>
@@ -9611,7 +9611,7 @@
         <v>30</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>55</v>
@@ -9634,16 +9634,16 @@
         <v>60</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G48" s="3">
         <v>30</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I48" s="3">
         <v>10.45</v>
@@ -9652,7 +9652,7 @@
         <v>15</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>52</v>
@@ -9670,7 +9670,7 @@
         <v>30</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>55</v>
@@ -9693,16 +9693,16 @@
         <v>60</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G49" s="3">
         <v>30</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I49" s="3">
         <v>10.45</v>
@@ -9711,7 +9711,7 @@
         <v>15</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>52</v>
@@ -9729,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>55</v>
@@ -9752,16 +9752,16 @@
         <v>60</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G50" s="3">
         <v>30</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I50" s="3">
         <v>10.45</v>
@@ -9770,7 +9770,7 @@
         <v>15</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>52</v>
@@ -9788,7 +9788,7 @@
         <v>30</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>55</v>
@@ -9811,16 +9811,16 @@
         <v>60</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G51" s="3">
         <v>30</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I51" s="3">
         <v>10.45</v>
@@ -9829,7 +9829,7 @@
         <v>15</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>52</v>
@@ -9847,7 +9847,7 @@
         <v>30</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>55</v>
@@ -9870,16 +9870,16 @@
         <v>60</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G52" s="3">
         <v>30</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I52" s="3">
         <v>10.45</v>
@@ -9888,7 +9888,7 @@
         <v>15</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>52</v>
@@ -9906,7 +9906,7 @@
         <v>30</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>55</v>
@@ -9929,16 +9929,16 @@
         <v>60</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G53" s="3">
         <v>30</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I53" s="3">
         <v>10.45</v>
@@ -9947,7 +9947,7 @@
         <v>15</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>52</v>
@@ -9965,7 +9965,7 @@
         <v>30</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>55</v>
@@ -9988,16 +9988,16 @@
         <v>60</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G54" s="3">
         <v>30</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I54" s="3">
         <v>10.45</v>
@@ -10006,7 +10006,7 @@
         <v>15</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>52</v>
@@ -10024,7 +10024,7 @@
         <v>30</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>55</v>
@@ -10047,16 +10047,16 @@
         <v>60</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G55" s="3">
         <v>30</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I55" s="3">
         <v>10.45</v>
@@ -10065,7 +10065,7 @@
         <v>15</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>52</v>
@@ -10083,7 +10083,7 @@
         <v>30</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>55</v>
@@ -10106,16 +10106,16 @@
         <v>60</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G56" s="3">
         <v>30</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I56" s="3">
         <v>10.45</v>
@@ -10124,7 +10124,7 @@
         <v>15</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>52</v>
@@ -10142,7 +10142,7 @@
         <v>30</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>55</v>
@@ -10165,16 +10165,16 @@
         <v>60</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G57" s="3">
         <v>30</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I57" s="3">
         <v>10.45</v>
@@ -10183,7 +10183,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>52</v>
@@ -10201,7 +10201,7 @@
         <v>30</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>55</v>
@@ -10224,16 +10224,16 @@
         <v>60</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G58" s="3">
         <v>30</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I58" s="3">
         <v>10.45</v>
@@ -10242,7 +10242,7 @@
         <v>15</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>52</v>
@@ -10260,7 +10260,7 @@
         <v>30</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>55</v>
@@ -10283,16 +10283,16 @@
         <v>60</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G59" s="3">
         <v>30</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I59" s="3">
         <v>10.45</v>
@@ -10301,7 +10301,7 @@
         <v>15</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>52</v>
@@ -10319,7 +10319,7 @@
         <v>30</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>55</v>
@@ -10342,16 +10342,16 @@
         <v>60</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G60" s="3">
         <v>30</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I60" s="3">
         <v>10.45</v>
@@ -10360,7 +10360,7 @@
         <v>15</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>52</v>
@@ -10378,7 +10378,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>55</v>
@@ -10401,16 +10401,16 @@
         <v>60</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G61" s="3">
         <v>30</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I61" s="3">
         <v>10.45</v>
@@ -10419,7 +10419,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>52</v>
@@ -10437,7 +10437,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>55</v>
@@ -10460,16 +10460,16 @@
         <v>60</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="3">
         <v>30</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I62" s="3">
         <v>10.45</v>
@@ -10478,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>52</v>
@@ -10496,7 +10496,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>55</v>
@@ -10519,16 +10519,16 @@
         <v>60</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G63" s="3">
         <v>30</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I63" s="3">
         <v>10.45</v>
@@ -10537,7 +10537,7 @@
         <v>15</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>52</v>
@@ -10555,7 +10555,7 @@
         <v>30</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>55</v>
@@ -10578,16 +10578,16 @@
         <v>60</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G64" s="3">
         <v>30</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I64" s="3">
         <v>10.45</v>
@@ -10596,7 +10596,7 @@
         <v>15</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>52</v>
@@ -10614,7 +10614,7 @@
         <v>30</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>55</v>
@@ -10637,16 +10637,16 @@
         <v>60</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G65" s="3">
         <v>30</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I65" s="3">
         <v>10.45</v>
@@ -10655,7 +10655,7 @@
         <v>15</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>52</v>
@@ -10673,7 +10673,7 @@
         <v>30</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>55</v>
@@ -10696,16 +10696,16 @@
         <v>60</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G66" s="3">
         <v>30</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I66" s="3">
         <v>10.45</v>
@@ -10714,7 +10714,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>52</v>
@@ -10732,7 +10732,7 @@
         <v>30</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>55</v>
@@ -10755,16 +10755,16 @@
         <v>60</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G67" s="3">
         <v>30</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I67" s="3">
         <v>10.45</v>
@@ -10773,7 +10773,7 @@
         <v>15</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>52</v>
@@ -10791,7 +10791,7 @@
         <v>30</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>55</v>
@@ -10814,16 +10814,16 @@
         <v>60</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G68" s="3">
         <v>30</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I68" s="3">
         <v>10.45</v>
@@ -10832,7 +10832,7 @@
         <v>15</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>52</v>
@@ -10850,7 +10850,7 @@
         <v>30</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>55</v>
@@ -10873,16 +10873,16 @@
         <v>60</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G69" s="3">
         <v>30</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I69" s="3">
         <v>10.45</v>
@@ -10891,7 +10891,7 @@
         <v>15</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>52</v>
@@ -10909,7 +10909,7 @@
         <v>30</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>55</v>
@@ -10932,16 +10932,16 @@
         <v>60</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G70" s="3">
         <v>30</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I70" s="3">
         <v>10.45</v>
@@ -10950,7 +10950,7 @@
         <v>15</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>52</v>
@@ -10968,7 +10968,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>55</v>
@@ -10991,16 +10991,16 @@
         <v>60</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G71" s="3">
         <v>30</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I71" s="3">
         <v>10.45</v>
@@ -11009,7 +11009,7 @@
         <v>15</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>52</v>
@@ -11027,7 +11027,7 @@
         <v>30</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>55</v>
@@ -11050,16 +11050,16 @@
         <v>60</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G72" s="3">
         <v>30</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I72" s="3">
         <v>10.45</v>
@@ -11068,7 +11068,7 @@
         <v>15</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>52</v>
@@ -11086,7 +11086,7 @@
         <v>30</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>55</v>
@@ -11109,16 +11109,16 @@
         <v>60</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G73" s="3">
         <v>30</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I73" s="3">
         <v>10.45</v>
@@ -11127,7 +11127,7 @@
         <v>15</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>52</v>
@@ -11145,7 +11145,7 @@
         <v>30</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>55</v>
@@ -11168,16 +11168,16 @@
         <v>60</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G74" s="3">
         <v>30</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I74" s="3">
         <v>10.45</v>
@@ -11186,7 +11186,7 @@
         <v>15</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>52</v>
@@ -11204,7 +11204,7 @@
         <v>30</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>55</v>
@@ -11227,16 +11227,16 @@
         <v>60</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G75" s="3">
         <v>30</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I75" s="3">
         <v>10.45</v>
@@ -11245,7 +11245,7 @@
         <v>15</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>52</v>
@@ -11263,7 +11263,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>55</v>
@@ -11286,16 +11286,16 @@
         <v>60</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G76" s="3">
         <v>30</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I76" s="3">
         <v>10.45</v>
@@ -11304,7 +11304,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>52</v>
@@ -11322,7 +11322,7 @@
         <v>30</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>55</v>
@@ -11345,16 +11345,16 @@
         <v>60</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G77" s="3">
         <v>30</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I77" s="3">
         <v>10.45</v>
@@ -11363,7 +11363,7 @@
         <v>15</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>52</v>
@@ -11381,7 +11381,7 @@
         <v>30</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>55</v>
@@ -11404,16 +11404,16 @@
         <v>60</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G78" s="3">
         <v>30</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I78" s="3">
         <v>10.45</v>
@@ -11422,7 +11422,7 @@
         <v>15</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>52</v>
@@ -11440,7 +11440,7 @@
         <v>30</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>55</v>
@@ -11463,16 +11463,16 @@
         <v>60</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G79" s="3">
         <v>30</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I79" s="3">
         <v>10.45</v>
@@ -11481,7 +11481,7 @@
         <v>15</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>52</v>
@@ -11499,7 +11499,7 @@
         <v>30</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>55</v>
@@ -11522,16 +11522,16 @@
         <v>60</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G80" s="3">
         <v>30</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I80" s="3">
         <v>10.45</v>
@@ -11540,7 +11540,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>52</v>
@@ -11558,7 +11558,7 @@
         <v>30</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>55</v>
@@ -11581,16 +11581,16 @@
         <v>60</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G81" s="3">
         <v>30</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I81" s="3">
         <v>10.45</v>
@@ -11599,7 +11599,7 @@
         <v>15</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>52</v>
@@ -11617,7 +11617,7 @@
         <v>30</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>55</v>
@@ -11640,16 +11640,16 @@
         <v>60</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G82" s="3">
         <v>30</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I82" s="3">
         <v>10.45</v>
@@ -11658,7 +11658,7 @@
         <v>15</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>52</v>
@@ -11676,7 +11676,7 @@
         <v>30</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>55</v>
@@ -11699,16 +11699,16 @@
         <v>60</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G83" s="3">
         <v>30</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I83" s="3">
         <v>10.45</v>
@@ -11717,7 +11717,7 @@
         <v>15</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>52</v>
@@ -11735,7 +11735,7 @@
         <v>30</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>55</v>
@@ -11758,16 +11758,16 @@
         <v>60</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G84" s="3">
         <v>30</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I84" s="3">
         <v>10.45</v>
@@ -11776,7 +11776,7 @@
         <v>15</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>52</v>
@@ -11794,7 +11794,7 @@
         <v>30</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>55</v>
@@ -11817,16 +11817,16 @@
         <v>60</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G85" s="3">
         <v>30</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I85" s="3">
         <v>10.45</v>
@@ -11835,7 +11835,7 @@
         <v>15</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>52</v>
@@ -11853,7 +11853,7 @@
         <v>30</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>55</v>
@@ -11876,16 +11876,16 @@
         <v>60</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G86" s="3">
         <v>30</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I86" s="3">
         <v>10.45</v>
@@ -11894,7 +11894,7 @@
         <v>15</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>52</v>
@@ -11912,7 +11912,7 @@
         <v>30</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>55</v>
@@ -11935,16 +11935,16 @@
         <v>60</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G87" s="3">
         <v>30</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I87" s="3">
         <v>10.45</v>
@@ -11953,7 +11953,7 @@
         <v>15</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>52</v>
@@ -11971,7 +11971,7 @@
         <v>30</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>55</v>
@@ -11994,16 +11994,16 @@
         <v>60</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G88" s="3">
         <v>30</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I88" s="3">
         <v>10.45</v>
@@ -12012,7 +12012,7 @@
         <v>15</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>52</v>
@@ -12030,7 +12030,7 @@
         <v>30</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>55</v>
@@ -12053,16 +12053,16 @@
         <v>60</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G89" s="3">
         <v>30</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I89" s="3">
         <v>10.45</v>
@@ -12071,7 +12071,7 @@
         <v>15</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>52</v>
@@ -12089,7 +12089,7 @@
         <v>30</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>55</v>
@@ -12112,16 +12112,16 @@
         <v>60</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G90" s="3">
         <v>30</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I90" s="3">
         <v>10.45</v>
@@ -12130,7 +12130,7 @@
         <v>15</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>52</v>
@@ -12148,7 +12148,7 @@
         <v>30</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>55</v>
@@ -12171,16 +12171,16 @@
         <v>60</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G91" s="3">
         <v>30</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I91" s="3">
         <v>10.45</v>
@@ -12189,7 +12189,7 @@
         <v>15</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>52</v>
@@ -12207,7 +12207,7 @@
         <v>30</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>55</v>
@@ -12230,16 +12230,16 @@
         <v>60</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G92" s="3">
         <v>30</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I92" s="3">
         <v>10.45</v>
@@ -12248,7 +12248,7 @@
         <v>15</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>52</v>
@@ -12266,7 +12266,7 @@
         <v>30</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>55</v>
@@ -12289,16 +12289,16 @@
         <v>60</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G93" s="3">
         <v>30</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I93" s="3">
         <v>10.45</v>
@@ -12307,7 +12307,7 @@
         <v>15</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>52</v>
@@ -12325,7 +12325,7 @@
         <v>30</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>55</v>
@@ -12348,16 +12348,16 @@
         <v>60</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G94" s="3">
         <v>30</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I94" s="3">
         <v>10.45</v>
@@ -12366,7 +12366,7 @@
         <v>15</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>52</v>
@@ -12384,7 +12384,7 @@
         <v>30</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>55</v>
@@ -12407,16 +12407,16 @@
         <v>60</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G95" s="3">
         <v>30</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I95" s="3">
         <v>10.45</v>
@@ -12425,7 +12425,7 @@
         <v>15</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>52</v>
@@ -12443,7 +12443,7 @@
         <v>30</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>55</v>
@@ -12466,16 +12466,16 @@
         <v>60</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G96" s="3">
         <v>30</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I96" s="3">
         <v>10.45</v>
@@ -12484,7 +12484,7 @@
         <v>15</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>52</v>
@@ -12502,7 +12502,7 @@
         <v>30</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>55</v>
@@ -12525,16 +12525,16 @@
         <v>60</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G97" s="3">
         <v>30</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I97" s="3">
         <v>10.45</v>
@@ -12543,7 +12543,7 @@
         <v>15</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>52</v>
@@ -12561,7 +12561,7 @@
         <v>30</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>55</v>
@@ -12584,16 +12584,16 @@
         <v>60</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G98" s="3">
         <v>30</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I98" s="3">
         <v>10.45</v>
@@ -12602,7 +12602,7 @@
         <v>15</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>52</v>
@@ -12620,7 +12620,7 @@
         <v>30</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>55</v>
@@ -12643,16 +12643,16 @@
         <v>60</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G99" s="3">
         <v>30</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I99" s="3">
         <v>10.45</v>
@@ -12661,7 +12661,7 @@
         <v>15</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>52</v>
@@ -12679,7 +12679,7 @@
         <v>30</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R99" s="3" t="s">
         <v>55</v>
@@ -12702,16 +12702,16 @@
         <v>60</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G100" s="3">
         <v>30</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I100" s="3">
         <v>10.45</v>
@@ -12720,7 +12720,7 @@
         <v>15</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>52</v>
@@ -12738,7 +12738,7 @@
         <v>30</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>55</v>
@@ -12761,16 +12761,16 @@
         <v>60</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G101" s="3">
         <v>30</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I101" s="3">
         <v>10.45</v>
@@ -12779,7 +12779,7 @@
         <v>15</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>52</v>
@@ -12797,7 +12797,7 @@
         <v>30</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>55</v>
@@ -12820,16 +12820,16 @@
         <v>60</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G102" s="3">
         <v>30</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I102" s="3">
         <v>10.45</v>
@@ -12838,7 +12838,7 @@
         <v>15</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>52</v>
@@ -12856,7 +12856,7 @@
         <v>30</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>55</v>
@@ -12879,16 +12879,16 @@
         <v>60</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G103" s="3">
         <v>30</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I103" s="3">
         <v>10.45</v>
@@ -12897,7 +12897,7 @@
         <v>15</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>52</v>
@@ -12915,7 +12915,7 @@
         <v>30</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R103" s="3" t="s">
         <v>55</v>
@@ -12938,16 +12938,16 @@
         <v>60</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G104" s="3">
         <v>30</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I104" s="3">
         <v>10.45</v>
@@ -12956,7 +12956,7 @@
         <v>15</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>52</v>
@@ -12974,7 +12974,7 @@
         <v>30</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R104" s="3" t="s">
         <v>55</v>
@@ -12997,16 +12997,16 @@
         <v>60</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G105" s="3">
         <v>30</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I105" s="3">
         <v>10.45</v>
@@ -13015,7 +13015,7 @@
         <v>15</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>52</v>
@@ -13033,7 +13033,7 @@
         <v>30</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R105" s="3" t="s">
         <v>55</v>
@@ -13056,16 +13056,16 @@
         <v>60</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G106" s="3">
         <v>30</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I106" s="3">
         <v>10.45</v>
@@ -13074,7 +13074,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>52</v>
@@ -13092,7 +13092,7 @@
         <v>30</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R106" s="3" t="s">
         <v>55</v>
@@ -13115,16 +13115,16 @@
         <v>60</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G107" s="3">
         <v>30</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I107" s="3">
         <v>10.45</v>
@@ -13133,7 +13133,7 @@
         <v>15</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>52</v>
@@ -13151,7 +13151,7 @@
         <v>30</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R107" s="3" t="s">
         <v>55</v>
@@ -13174,16 +13174,16 @@
         <v>60</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G108" s="3">
         <v>30</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I108" s="3">
         <v>10.45</v>
@@ -13192,7 +13192,7 @@
         <v>15</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>52</v>
@@ -13210,7 +13210,7 @@
         <v>30</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R108" s="3" t="s">
         <v>55</v>
@@ -13233,16 +13233,16 @@
         <v>60</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G109" s="3">
         <v>30</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I109" s="3">
         <v>10.45</v>
@@ -13251,7 +13251,7 @@
         <v>15</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>52</v>
@@ -13269,7 +13269,7 @@
         <v>30</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>55</v>
@@ -13292,16 +13292,16 @@
         <v>60</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G110" s="3">
         <v>30</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I110" s="3">
         <v>10.45</v>
@@ -13310,7 +13310,7 @@
         <v>15</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>52</v>
@@ -13328,7 +13328,7 @@
         <v>30</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R110" s="3" t="s">
         <v>55</v>
@@ -13351,16 +13351,16 @@
         <v>60</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G111" s="3">
         <v>30</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I111" s="3">
         <v>10.45</v>
@@ -13369,7 +13369,7 @@
         <v>15</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>52</v>
@@ -13387,7 +13387,7 @@
         <v>30</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R111" s="3" t="s">
         <v>55</v>
@@ -13410,16 +13410,16 @@
         <v>60</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G112" s="3">
         <v>30</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I112" s="3">
         <v>10.45</v>
@@ -13428,7 +13428,7 @@
         <v>15</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>52</v>
@@ -13446,7 +13446,7 @@
         <v>30</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R112" s="3" t="s">
         <v>55</v>
@@ -13469,16 +13469,16 @@
         <v>60</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G113" s="3">
         <v>30</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I113" s="3">
         <v>10.45</v>
@@ -13487,7 +13487,7 @@
         <v>15</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>52</v>
@@ -13505,7 +13505,7 @@
         <v>30</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R113" s="3" t="s">
         <v>55</v>
@@ -13528,16 +13528,16 @@
         <v>60</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G114" s="3">
         <v>30</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I114" s="3">
         <v>10.45</v>
@@ -13546,7 +13546,7 @@
         <v>15</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>52</v>
@@ -13564,7 +13564,7 @@
         <v>30</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R114" s="3" t="s">
         <v>55</v>
@@ -13587,16 +13587,16 @@
         <v>60</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G115" s="3">
         <v>30</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I115" s="3">
         <v>10.45</v>
@@ -13605,7 +13605,7 @@
         <v>15</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>52</v>
@@ -13623,7 +13623,7 @@
         <v>30</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R115" s="3" t="s">
         <v>55</v>
@@ -13646,16 +13646,16 @@
         <v>60</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G116" s="3">
         <v>30</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I116" s="3">
         <v>10.45</v>
@@ -13664,7 +13664,7 @@
         <v>15</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>52</v>
@@ -13682,7 +13682,7 @@
         <v>30</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R116" s="3" t="s">
         <v>55</v>
@@ -13705,16 +13705,16 @@
         <v>60</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G117" s="3">
         <v>30</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I117" s="3">
         <v>10.45</v>
@@ -13723,7 +13723,7 @@
         <v>15</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>52</v>
@@ -13741,7 +13741,7 @@
         <v>30</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R117" s="3" t="s">
         <v>55</v>
@@ -13764,16 +13764,16 @@
         <v>60</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G118" s="3">
         <v>30</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I118" s="3">
         <v>10.45</v>
@@ -13782,7 +13782,7 @@
         <v>15</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>52</v>
@@ -13800,7 +13800,7 @@
         <v>30</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R118" s="3" t="s">
         <v>55</v>
@@ -13823,16 +13823,16 @@
         <v>60</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G119" s="3">
         <v>30</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I119" s="3">
         <v>10.45</v>
@@ -13841,7 +13841,7 @@
         <v>15</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>52</v>
@@ -13859,7 +13859,7 @@
         <v>30</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R119" s="3" t="s">
         <v>55</v>
@@ -13882,16 +13882,16 @@
         <v>60</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G120" s="3">
         <v>30</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I120" s="3">
         <v>10.45</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>52</v>
@@ -13918,7 +13918,7 @@
         <v>30</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R120" s="3" t="s">
         <v>55</v>
@@ -13941,16 +13941,16 @@
         <v>60</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G121" s="3">
         <v>30</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I121" s="3">
         <v>10.45</v>
@@ -13959,7 +13959,7 @@
         <v>15</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>52</v>
@@ -13977,7 +13977,7 @@
         <v>30</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R121" s="3" t="s">
         <v>55</v>
@@ -14000,16 +14000,16 @@
         <v>60</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G122" s="3">
         <v>30</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I122" s="3">
         <v>10.45</v>
@@ -14018,7 +14018,7 @@
         <v>15</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>52</v>
@@ -14036,7 +14036,7 @@
         <v>30</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R122" s="3" t="s">
         <v>55</v>
@@ -14059,16 +14059,16 @@
         <v>60</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G123" s="3">
         <v>30</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I123" s="3">
         <v>10.45</v>
@@ -14077,7 +14077,7 @@
         <v>15</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>52</v>
@@ -14095,7 +14095,7 @@
         <v>30</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R123" s="3" t="s">
         <v>55</v>
@@ -14118,16 +14118,16 @@
         <v>60</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G124" s="3">
         <v>30</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I124" s="3">
         <v>10.45</v>
@@ -14136,7 +14136,7 @@
         <v>15</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>52</v>
@@ -14154,7 +14154,7 @@
         <v>30</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R124" s="3" t="s">
         <v>55</v>
@@ -14177,16 +14177,16 @@
         <v>60</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G125" s="3">
         <v>30</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I125" s="3">
         <v>10.45</v>
@@ -14195,7 +14195,7 @@
         <v>15</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>52</v>
@@ -14213,7 +14213,7 @@
         <v>30</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R125" s="3" t="s">
         <v>55</v>
@@ -14236,16 +14236,16 @@
         <v>60</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G126" s="3">
         <v>30</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I126" s="3">
         <v>10.45</v>
@@ -14254,7 +14254,7 @@
         <v>15</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>52</v>
@@ -14272,7 +14272,7 @@
         <v>30</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R126" s="3" t="s">
         <v>55</v>
@@ -14295,16 +14295,16 @@
         <v>60</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G127" s="3">
         <v>30</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I127" s="3">
         <v>10.45</v>
@@ -14313,7 +14313,7 @@
         <v>15</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>52</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R127" s="3" t="s">
         <v>55</v>
@@ -14354,16 +14354,16 @@
         <v>60</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G128" s="3">
         <v>30</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I128" s="3">
         <v>10.45</v>
@@ -14372,7 +14372,7 @@
         <v>15</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>52</v>
@@ -14390,7 +14390,7 @@
         <v>30</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R128" s="3" t="s">
         <v>55</v>
@@ -14413,16 +14413,16 @@
         <v>60</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G129" s="3">
         <v>30</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I129" s="3">
         <v>10.45</v>
@@ -14431,7 +14431,7 @@
         <v>15</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>52</v>
@@ -14449,7 +14449,7 @@
         <v>30</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R129" s="3" t="s">
         <v>55</v>
@@ -14472,16 +14472,16 @@
         <v>60</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G130" s="3">
         <v>30</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I130" s="3">
         <v>10.45</v>
@@ -14490,7 +14490,7 @@
         <v>15</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>52</v>
@@ -14508,7 +14508,7 @@
         <v>30</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R130" s="3" t="s">
         <v>55</v>
@@ -14531,16 +14531,16 @@
         <v>60</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G131" s="3">
         <v>30</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I131" s="3">
         <v>10.45</v>
@@ -14549,7 +14549,7 @@
         <v>15</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>52</v>
@@ -14567,7 +14567,7 @@
         <v>30</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R131" s="3" t="s">
         <v>55</v>
@@ -14590,16 +14590,16 @@
         <v>60</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G132" s="3">
         <v>30</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I132" s="3">
         <v>10.45</v>
@@ -14608,7 +14608,7 @@
         <v>15</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>52</v>
@@ -14626,7 +14626,7 @@
         <v>30</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R132" s="3" t="s">
         <v>55</v>
@@ -14649,16 +14649,16 @@
         <v>60</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G133" s="3">
         <v>30</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I133" s="3">
         <v>10.45</v>
@@ -14667,7 +14667,7 @@
         <v>15</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>52</v>
@@ -14685,7 +14685,7 @@
         <v>30</v>
       </c>
       <c r="Q133" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R133" s="3" t="s">
         <v>55</v>
@@ -14708,16 +14708,16 @@
         <v>60</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G134" s="3">
         <v>30</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I134" s="3">
         <v>10.45</v>
@@ -14726,7 +14726,7 @@
         <v>15</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>52</v>
@@ -14744,7 +14744,7 @@
         <v>30</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R134" s="3" t="s">
         <v>55</v>
@@ -14767,16 +14767,16 @@
         <v>60</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G135" s="3">
         <v>30</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I135" s="3">
         <v>10.45</v>
@@ -14785,7 +14785,7 @@
         <v>15</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>52</v>
@@ -14803,7 +14803,7 @@
         <v>30</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R135" s="3" t="s">
         <v>55</v>
@@ -14826,16 +14826,16 @@
         <v>60</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G136" s="3">
         <v>30</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I136" s="3">
         <v>10.45</v>
@@ -14844,7 +14844,7 @@
         <v>15</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>52</v>
@@ -14862,7 +14862,7 @@
         <v>30</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R136" s="3" t="s">
         <v>55</v>
@@ -14885,16 +14885,16 @@
         <v>60</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G137" s="3">
         <v>30</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I137" s="3">
         <v>10.45</v>
@@ -14903,7 +14903,7 @@
         <v>15</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>52</v>
@@ -14921,7 +14921,7 @@
         <v>30</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R137" s="3" t="s">
         <v>55</v>
@@ -14944,16 +14944,16 @@
         <v>60</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G138" s="3">
         <v>30</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I138" s="3">
         <v>10.45</v>
@@ -14962,7 +14962,7 @@
         <v>15</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>52</v>
@@ -14980,7 +14980,7 @@
         <v>30</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R138" s="3" t="s">
         <v>55</v>
@@ -15003,16 +15003,16 @@
         <v>60</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G139" s="3">
         <v>30</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I139" s="3">
         <v>10.45</v>
@@ -15021,7 +15021,7 @@
         <v>15</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>52</v>
@@ -15039,7 +15039,7 @@
         <v>30</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R139" s="3" t="s">
         <v>55</v>
@@ -15062,16 +15062,16 @@
         <v>60</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G140" s="3">
         <v>30</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I140" s="3">
         <v>10.45</v>
@@ -15080,7 +15080,7 @@
         <v>15</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>52</v>
@@ -15098,7 +15098,7 @@
         <v>30</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R140" s="3" t="s">
         <v>55</v>
@@ -15121,16 +15121,16 @@
         <v>60</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G141" s="3">
         <v>30</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I141" s="3">
         <v>10.45</v>
@@ -15139,7 +15139,7 @@
         <v>15</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>52</v>
@@ -15157,7 +15157,7 @@
         <v>30</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R141" s="3" t="s">
         <v>55</v>
@@ -15180,16 +15180,16 @@
         <v>60</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G142" s="3">
         <v>30</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I142" s="3">
         <v>10.45</v>
@@ -15198,7 +15198,7 @@
         <v>15</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>52</v>
@@ -15216,7 +15216,7 @@
         <v>30</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R142" s="3" t="s">
         <v>55</v>
@@ -15239,16 +15239,16 @@
         <v>60</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G143" s="3">
         <v>30</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I143" s="3">
         <v>10.45</v>
@@ -15257,7 +15257,7 @@
         <v>15</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>52</v>
@@ -15275,7 +15275,7 @@
         <v>30</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R143" s="3" t="s">
         <v>55</v>
@@ -15298,16 +15298,16 @@
         <v>60</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G144" s="3">
         <v>30</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I144" s="3">
         <v>10.45</v>
@@ -15316,7 +15316,7 @@
         <v>15</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>52</v>
@@ -15334,7 +15334,7 @@
         <v>30</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R144" s="3" t="s">
         <v>55</v>
@@ -15357,16 +15357,16 @@
         <v>60</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G145" s="3">
         <v>30</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I145" s="3">
         <v>10.45</v>
@@ -15375,7 +15375,7 @@
         <v>15</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>52</v>
@@ -15393,7 +15393,7 @@
         <v>30</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R145" s="3" t="s">
         <v>55</v>
@@ -15416,16 +15416,16 @@
         <v>60</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G146" s="3">
         <v>30</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I146" s="3">
         <v>10.45</v>
@@ -15434,7 +15434,7 @@
         <v>15</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>52</v>
@@ -15452,7 +15452,7 @@
         <v>30</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R146" s="3" t="s">
         <v>55</v>
@@ -15475,16 +15475,16 @@
         <v>60</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G147" s="3">
         <v>30</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I147" s="3">
         <v>10.45</v>
@@ -15493,7 +15493,7 @@
         <v>15</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>52</v>
@@ -15511,7 +15511,7 @@
         <v>30</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R147" s="3" t="s">
         <v>55</v>
@@ -15534,16 +15534,16 @@
         <v>60</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G148" s="3">
         <v>30</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I148" s="3">
         <v>10.45</v>
@@ -15552,7 +15552,7 @@
         <v>15</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>52</v>
@@ -15570,7 +15570,7 @@
         <v>30</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R148" s="3" t="s">
         <v>55</v>
@@ -15593,16 +15593,16 @@
         <v>60</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G149" s="3">
         <v>30</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I149" s="3">
         <v>10.45</v>
@@ -15611,7 +15611,7 @@
         <v>15</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>52</v>
@@ -15629,7 +15629,7 @@
         <v>30</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R149" s="3" t="s">
         <v>55</v>
@@ -15652,16 +15652,16 @@
         <v>60</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G150" s="3">
         <v>30</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I150" s="3">
         <v>10.45</v>
@@ -15670,7 +15670,7 @@
         <v>15</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>52</v>
@@ -15688,7 +15688,7 @@
         <v>30</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R150" s="3" t="s">
         <v>55</v>
@@ -15711,16 +15711,16 @@
         <v>60</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G151" s="3">
         <v>30</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I151" s="3">
         <v>10.45</v>
@@ -15729,7 +15729,7 @@
         <v>15</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>52</v>
@@ -15747,7 +15747,7 @@
         <v>30</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R151" s="3" t="s">
         <v>55</v>
@@ -15770,16 +15770,16 @@
         <v>60</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G152" s="3">
         <v>30</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I152" s="3">
         <v>10.45</v>
@@ -15788,7 +15788,7 @@
         <v>15</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>52</v>
@@ -15806,7 +15806,7 @@
         <v>30</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R152" s="3" t="s">
         <v>55</v>
@@ -15829,16 +15829,16 @@
         <v>60</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G153" s="3">
         <v>30</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I153" s="3">
         <v>10.45</v>
@@ -15847,7 +15847,7 @@
         <v>15</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>52</v>
@@ -15865,7 +15865,7 @@
         <v>30</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R153" s="3" t="s">
         <v>55</v>
@@ -15888,16 +15888,16 @@
         <v>60</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G154" s="3">
         <v>30</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I154" s="3">
         <v>10.45</v>
@@ -15906,7 +15906,7 @@
         <v>15</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>52</v>
@@ -15924,7 +15924,7 @@
         <v>30</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R154" s="3" t="s">
         <v>55</v>
@@ -15947,16 +15947,16 @@
         <v>60</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G155" s="3">
         <v>30</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I155" s="3">
         <v>10.45</v>
@@ -15965,7 +15965,7 @@
         <v>15</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>52</v>
@@ -15983,7 +15983,7 @@
         <v>30</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R155" s="3" t="s">
         <v>55</v>
@@ -16006,16 +16006,16 @@
         <v>60</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G156" s="3">
         <v>30</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I156" s="3">
         <v>10.45</v>
@@ -16024,7 +16024,7 @@
         <v>15</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>52</v>
@@ -16042,7 +16042,7 @@
         <v>30</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R156" s="3" t="s">
         <v>55</v>
@@ -16065,16 +16065,16 @@
         <v>60</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G157" s="3">
         <v>30</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I157" s="3">
         <v>10.45</v>
@@ -16083,7 +16083,7 @@
         <v>15</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>52</v>
@@ -16101,7 +16101,7 @@
         <v>30</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R157" s="3" t="s">
         <v>55</v>
@@ -16124,16 +16124,16 @@
         <v>60</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G158" s="3">
         <v>30</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I158" s="3">
         <v>10.45</v>
@@ -16142,7 +16142,7 @@
         <v>15</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>52</v>
@@ -16160,7 +16160,7 @@
         <v>30</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R158" s="3" t="s">
         <v>55</v>
@@ -16183,16 +16183,16 @@
         <v>60</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G159" s="3">
         <v>30</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I159" s="3">
         <v>10.45</v>
@@ -16201,7 +16201,7 @@
         <v>15</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>52</v>
@@ -16219,7 +16219,7 @@
         <v>30</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R159" s="3" t="s">
         <v>55</v>
@@ -16242,16 +16242,16 @@
         <v>60</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G160" s="3">
         <v>30</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I160" s="3">
         <v>10.45</v>
@@ -16260,7 +16260,7 @@
         <v>15</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>52</v>
@@ -16278,7 +16278,7 @@
         <v>30</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R160" s="3" t="s">
         <v>55</v>
@@ -16301,16 +16301,16 @@
         <v>60</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G161" s="3">
         <v>30</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I161" s="3">
         <v>10.45</v>
@@ -16319,7 +16319,7 @@
         <v>15</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>52</v>
@@ -16337,7 +16337,7 @@
         <v>30</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R161" s="3" t="s">
         <v>55</v>
@@ -16360,16 +16360,16 @@
         <v>60</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G162" s="3">
         <v>30</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I162" s="3">
         <v>10.45</v>
@@ -16378,7 +16378,7 @@
         <v>15</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>52</v>
@@ -16396,7 +16396,7 @@
         <v>30</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R162" s="3" t="s">
         <v>55</v>
@@ -16419,16 +16419,16 @@
         <v>60</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G163" s="3">
         <v>30</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I163" s="3">
         <v>10.45</v>
@@ -16437,7 +16437,7 @@
         <v>15</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>52</v>
@@ -16455,7 +16455,7 @@
         <v>30</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R163" s="3" t="s">
         <v>55</v>
@@ -16478,16 +16478,16 @@
         <v>60</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G164" s="3">
         <v>30</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I164" s="3">
         <v>10.45</v>
@@ -16496,7 +16496,7 @@
         <v>15</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>52</v>
@@ -16514,7 +16514,7 @@
         <v>30</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R164" s="3" t="s">
         <v>55</v>
@@ -16537,16 +16537,16 @@
         <v>60</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G165" s="3">
         <v>30</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I165" s="3">
         <v>10.45</v>
@@ -16555,7 +16555,7 @@
         <v>15</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>52</v>
@@ -16573,7 +16573,7 @@
         <v>30</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R165" s="3" t="s">
         <v>55</v>
@@ -16596,16 +16596,16 @@
         <v>60</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G166" s="3">
         <v>30</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I166" s="3">
         <v>10.45</v>
@@ -16614,7 +16614,7 @@
         <v>15</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>52</v>
@@ -16632,7 +16632,7 @@
         <v>30</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R166" s="3" t="s">
         <v>55</v>
@@ -16655,16 +16655,16 @@
         <v>60</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G167" s="3">
         <v>30</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I167" s="3">
         <v>10.45</v>
@@ -16673,7 +16673,7 @@
         <v>15</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>52</v>
@@ -16691,7 +16691,7 @@
         <v>30</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R167" s="3" t="s">
         <v>55</v>
@@ -16714,16 +16714,16 @@
         <v>60</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G168" s="3">
         <v>30</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I168" s="3">
         <v>10.45</v>
@@ -16732,7 +16732,7 @@
         <v>15</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>52</v>
@@ -16750,7 +16750,7 @@
         <v>30</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R168" s="3" t="s">
         <v>55</v>
@@ -16773,16 +16773,16 @@
         <v>60</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G169" s="3">
         <v>30</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I169" s="3">
         <v>10.45</v>
@@ -16791,7 +16791,7 @@
         <v>15</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>52</v>
@@ -16809,7 +16809,7 @@
         <v>30</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R169" s="3" t="s">
         <v>55</v>
@@ -16832,16 +16832,16 @@
         <v>60</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G170" s="3">
         <v>30</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I170" s="3">
         <v>10.45</v>
@@ -16850,7 +16850,7 @@
         <v>15</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>52</v>
@@ -16868,7 +16868,7 @@
         <v>30</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R170" s="3" t="s">
         <v>55</v>
@@ -16891,16 +16891,16 @@
         <v>60</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G171" s="3">
         <v>30</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I171" s="3">
         <v>10.45</v>
@@ -16909,7 +16909,7 @@
         <v>15</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>52</v>
@@ -16927,7 +16927,7 @@
         <v>30</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R171" s="3" t="s">
         <v>55</v>
@@ -16950,16 +16950,16 @@
         <v>60</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G172" s="3">
         <v>30</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I172" s="3">
         <v>10.45</v>
@@ -16968,7 +16968,7 @@
         <v>15</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>52</v>
@@ -16986,7 +16986,7 @@
         <v>30</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R172" s="3" t="s">
         <v>55</v>
@@ -17009,16 +17009,16 @@
         <v>60</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G173" s="3">
         <v>30</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I173" s="3">
         <v>10.45</v>
@@ -17027,7 +17027,7 @@
         <v>15</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>52</v>
@@ -17045,7 +17045,7 @@
         <v>30</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R173" s="3" t="s">
         <v>55</v>
@@ -17068,16 +17068,16 @@
         <v>60</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G174" s="3">
         <v>30</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I174" s="3">
         <v>10.45</v>
@@ -17086,7 +17086,7 @@
         <v>15</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>52</v>
@@ -17104,7 +17104,7 @@
         <v>30</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R174" s="3" t="s">
         <v>55</v>
@@ -17127,16 +17127,16 @@
         <v>60</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G175" s="3">
         <v>30</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I175" s="3">
         <v>10.45</v>
@@ -17145,7 +17145,7 @@
         <v>15</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>52</v>
@@ -17163,7 +17163,7 @@
         <v>30</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R175" s="3" t="s">
         <v>55</v>
@@ -17186,16 +17186,16 @@
         <v>60</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G176" s="3">
         <v>30</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I176" s="3">
         <v>10.45</v>
@@ -17204,7 +17204,7 @@
         <v>15</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>52</v>
@@ -17222,7 +17222,7 @@
         <v>30</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R176" s="3" t="s">
         <v>55</v>
@@ -17245,16 +17245,16 @@
         <v>60</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G177" s="3">
         <v>30</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I177" s="3">
         <v>10.45</v>
@@ -17263,7 +17263,7 @@
         <v>15</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>52</v>
@@ -17281,7 +17281,7 @@
         <v>30</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R177" s="3" t="s">
         <v>55</v>
@@ -17304,16 +17304,16 @@
         <v>60</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G178" s="3">
         <v>30</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I178" s="3">
         <v>10.45</v>
@@ -17322,7 +17322,7 @@
         <v>15</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>52</v>
@@ -17340,7 +17340,7 @@
         <v>30</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R178" s="3" t="s">
         <v>55</v>
@@ -17363,16 +17363,16 @@
         <v>60</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G179" s="3">
         <v>30</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I179" s="3">
         <v>10.45</v>
@@ -17381,7 +17381,7 @@
         <v>15</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>52</v>
@@ -17399,7 +17399,7 @@
         <v>30</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R179" s="3" t="s">
         <v>55</v>
@@ -17422,16 +17422,16 @@
         <v>60</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G180" s="3">
         <v>30</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I180" s="3">
         <v>10.45</v>
@@ -17440,7 +17440,7 @@
         <v>15</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>52</v>
@@ -17458,7 +17458,7 @@
         <v>30</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R180" s="3" t="s">
         <v>55</v>
@@ -17481,16 +17481,16 @@
         <v>60</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G181" s="3">
         <v>30</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I181" s="3">
         <v>10.45</v>
@@ -17499,7 +17499,7 @@
         <v>15</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>52</v>
@@ -17517,7 +17517,7 @@
         <v>30</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R181" s="3" t="s">
         <v>55</v>
@@ -17540,16 +17540,16 @@
         <v>60</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G182" s="3">
         <v>30</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I182" s="3">
         <v>10.45</v>
@@ -17558,7 +17558,7 @@
         <v>15</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>52</v>
@@ -17576,7 +17576,7 @@
         <v>30</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R182" s="3" t="s">
         <v>55</v>
@@ -17599,16 +17599,16 @@
         <v>60</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G183" s="3">
         <v>30</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I183" s="3">
         <v>10.45</v>
@@ -17617,7 +17617,7 @@
         <v>15</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>52</v>
@@ -17635,7 +17635,7 @@
         <v>30</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R183" s="3" t="s">
         <v>55</v>
@@ -17658,16 +17658,16 @@
         <v>60</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G184" s="3">
         <v>30</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I184" s="3">
         <v>10.45</v>
@@ -17676,7 +17676,7 @@
         <v>15</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>52</v>
@@ -17694,7 +17694,7 @@
         <v>30</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R184" s="3" t="s">
         <v>55</v>
@@ -17717,16 +17717,16 @@
         <v>60</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G185" s="3">
         <v>30</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I185" s="3">
         <v>10.45</v>
@@ -17735,7 +17735,7 @@
         <v>15</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>52</v>
@@ -17753,7 +17753,7 @@
         <v>30</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R185" s="3" t="s">
         <v>55</v>
@@ -17776,16 +17776,16 @@
         <v>60</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G186" s="3">
         <v>30</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I186" s="3">
         <v>10.45</v>
@@ -17794,7 +17794,7 @@
         <v>15</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>52</v>
@@ -17812,7 +17812,7 @@
         <v>30</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R186" s="3" t="s">
         <v>55</v>
@@ -17835,16 +17835,16 @@
         <v>60</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G187" s="3">
         <v>30</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I187" s="3">
         <v>10.45</v>
@@ -17853,7 +17853,7 @@
         <v>15</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>52</v>
@@ -17871,7 +17871,7 @@
         <v>30</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R187" s="3" t="s">
         <v>55</v>
@@ -17894,16 +17894,16 @@
         <v>60</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G188" s="3">
         <v>30</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I188" s="3">
         <v>10.45</v>
@@ -17912,7 +17912,7 @@
         <v>15</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>52</v>
@@ -17930,7 +17930,7 @@
         <v>30</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R188" s="3" t="s">
         <v>55</v>
@@ -17953,16 +17953,16 @@
         <v>60</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G189" s="3">
         <v>30</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I189" s="3">
         <v>10.45</v>
@@ -17971,7 +17971,7 @@
         <v>15</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>52</v>
@@ -17989,7 +17989,7 @@
         <v>30</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R189" s="3" t="s">
         <v>55</v>
@@ -18012,16 +18012,16 @@
         <v>60</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G190" s="3">
         <v>30</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I190" s="3">
         <v>10.45</v>
@@ -18030,7 +18030,7 @@
         <v>15</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>52</v>
@@ -18048,7 +18048,7 @@
         <v>30</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>55</v>
@@ -18071,16 +18071,16 @@
         <v>60</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G191" s="3">
         <v>30</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I191" s="3">
         <v>10.45</v>
@@ -18089,7 +18089,7 @@
         <v>15</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>52</v>
@@ -18107,7 +18107,7 @@
         <v>30</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R191" s="3" t="s">
         <v>55</v>
@@ -18130,16 +18130,16 @@
         <v>60</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G192" s="3">
         <v>30</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I192" s="3">
         <v>10.45</v>
@@ -18148,7 +18148,7 @@
         <v>15</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>52</v>
@@ -18166,7 +18166,7 @@
         <v>30</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R192" s="3" t="s">
         <v>55</v>
@@ -18189,16 +18189,16 @@
         <v>60</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G193" s="3">
         <v>30</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I193" s="3">
         <v>10.45</v>
@@ -18207,7 +18207,7 @@
         <v>15</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>52</v>
@@ -18225,7 +18225,7 @@
         <v>30</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R193" s="3" t="s">
         <v>55</v>
@@ -18248,16 +18248,16 @@
         <v>60</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G194" s="3">
         <v>30</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I194" s="3">
         <v>10.45</v>
@@ -18266,7 +18266,7 @@
         <v>15</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>52</v>
@@ -18284,7 +18284,7 @@
         <v>30</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R194" s="3" t="s">
         <v>55</v>
@@ -18307,16 +18307,16 @@
         <v>60</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G195" s="3">
         <v>30</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I195" s="3">
         <v>10.45</v>
@@ -18325,7 +18325,7 @@
         <v>15</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>52</v>
@@ -18343,7 +18343,7 @@
         <v>30</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R195" s="3" t="s">
         <v>55</v>
@@ -18366,16 +18366,16 @@
         <v>60</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G196" s="3">
         <v>30</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I196" s="3">
         <v>10.45</v>
@@ -18384,7 +18384,7 @@
         <v>15</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>52</v>
@@ -18402,7 +18402,7 @@
         <v>30</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R196" s="3" t="s">
         <v>55</v>
@@ -18425,16 +18425,16 @@
         <v>60</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G197" s="3">
         <v>30</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I197" s="3">
         <v>10.45</v>
@@ -18443,7 +18443,7 @@
         <v>15</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>52</v>
@@ -18461,7 +18461,7 @@
         <v>30</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R197" s="3" t="s">
         <v>55</v>
@@ -18484,16 +18484,16 @@
         <v>60</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G198" s="3">
         <v>30</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I198" s="3">
         <v>10.45</v>
@@ -18502,7 +18502,7 @@
         <v>15</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>52</v>
@@ -18520,7 +18520,7 @@
         <v>30</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R198" s="3" t="s">
         <v>55</v>
@@ -18543,16 +18543,16 @@
         <v>60</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G199" s="3">
         <v>30</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I199" s="3">
         <v>10.45</v>
@@ -18561,7 +18561,7 @@
         <v>15</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>52</v>
@@ -18579,7 +18579,7 @@
         <v>30</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R199" s="3" t="s">
         <v>55</v>
@@ -18602,16 +18602,16 @@
         <v>60</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G200" s="3">
         <v>30</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I200" s="3">
         <v>10.45</v>
@@ -18620,7 +18620,7 @@
         <v>15</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>52</v>
@@ -18638,7 +18638,7 @@
         <v>30</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R200" s="3" t="s">
         <v>55</v>
@@ -18661,16 +18661,16 @@
         <v>60</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G201" s="3">
         <v>30</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I201" s="3">
         <v>10.45</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>52</v>
@@ -18697,7 +18697,7 @@
         <v>30</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R201" s="3" t="s">
         <v>55</v>
@@ -18720,16 +18720,16 @@
         <v>60</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G202" s="3">
         <v>30</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I202" s="3">
         <v>10.45</v>
@@ -18738,7 +18738,7 @@
         <v>15</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>52</v>
@@ -18756,7 +18756,7 @@
         <v>30</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R202" s="3" t="s">
         <v>55</v>
@@ -18779,16 +18779,16 @@
         <v>60</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G203" s="3">
         <v>30</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I203" s="3">
         <v>10.45</v>
@@ -18797,7 +18797,7 @@
         <v>15</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>52</v>
@@ -18815,7 +18815,7 @@
         <v>30</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R203" s="3" t="s">
         <v>55</v>
@@ -18838,16 +18838,16 @@
         <v>60</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G204" s="3">
         <v>30</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I204" s="3">
         <v>10.45</v>
@@ -18856,7 +18856,7 @@
         <v>15</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>52</v>
@@ -18874,7 +18874,7 @@
         <v>30</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R204" s="3" t="s">
         <v>55</v>
@@ -18897,16 +18897,16 @@
         <v>60</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G205" s="3">
         <v>30</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I205" s="3">
         <v>10.45</v>
@@ -18915,7 +18915,7 @@
         <v>15</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>52</v>
@@ -18933,7 +18933,7 @@
         <v>30</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R205" s="3" t="s">
         <v>55</v>
@@ -18956,16 +18956,16 @@
         <v>60</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G206" s="3">
         <v>30</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I206" s="3">
         <v>10.45</v>
@@ -18974,7 +18974,7 @@
         <v>15</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>52</v>
@@ -18992,7 +18992,7 @@
         <v>30</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R206" s="3" t="s">
         <v>55</v>
@@ -19015,16 +19015,16 @@
         <v>60</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G207" s="3">
         <v>30</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I207" s="3">
         <v>10.45</v>
@@ -19033,7 +19033,7 @@
         <v>15</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>52</v>
@@ -19051,7 +19051,7 @@
         <v>30</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R207" s="3" t="s">
         <v>55</v>
@@ -19074,16 +19074,16 @@
         <v>60</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G208" s="3">
         <v>30</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I208" s="3">
         <v>10.45</v>
@@ -19092,7 +19092,7 @@
         <v>15</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>52</v>
@@ -19110,7 +19110,7 @@
         <v>30</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R208" s="3" t="s">
         <v>55</v>
@@ -19133,16 +19133,16 @@
         <v>60</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G209" s="3">
         <v>30</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I209" s="3">
         <v>10.45</v>
@@ -19151,7 +19151,7 @@
         <v>15</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>52</v>
@@ -19169,7 +19169,7 @@
         <v>30</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R209" s="3" t="s">
         <v>55</v>
@@ -19192,16 +19192,16 @@
         <v>60</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G210" s="3">
         <v>30</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I210" s="3">
         <v>10.45</v>
@@ -19210,7 +19210,7 @@
         <v>15</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>52</v>
@@ -19228,7 +19228,7 @@
         <v>30</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R210" s="3" t="s">
         <v>55</v>
@@ -19251,16 +19251,16 @@
         <v>60</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G211" s="3">
         <v>30</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I211" s="3">
         <v>10.45</v>
@@ -19269,7 +19269,7 @@
         <v>15</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>52</v>
@@ -19287,7 +19287,7 @@
         <v>30</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R211" s="3" t="s">
         <v>55</v>
@@ -19310,16 +19310,16 @@
         <v>60</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G212" s="3">
         <v>30</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I212" s="3">
         <v>10.45</v>
@@ -19328,7 +19328,7 @@
         <v>15</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>52</v>
@@ -19346,7 +19346,7 @@
         <v>30</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R212" s="3" t="s">
         <v>55</v>
@@ -19369,16 +19369,16 @@
         <v>60</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G213" s="3">
         <v>30</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I213" s="3">
         <v>10.45</v>
@@ -19387,7 +19387,7 @@
         <v>15</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>52</v>
@@ -19405,7 +19405,7 @@
         <v>30</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R213" s="3" t="s">
         <v>55</v>
@@ -19428,16 +19428,16 @@
         <v>60</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G214" s="3">
         <v>30</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I214" s="3">
         <v>10.45</v>
@@ -19446,7 +19446,7 @@
         <v>15</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L214" s="3" t="s">
         <v>52</v>
@@ -19464,7 +19464,7 @@
         <v>30</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R214" s="3" t="s">
         <v>55</v>
@@ -19487,16 +19487,16 @@
         <v>60</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G215" s="3">
         <v>30</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I215" s="3">
         <v>10.45</v>
@@ -19505,7 +19505,7 @@
         <v>15</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>52</v>
@@ -19523,7 +19523,7 @@
         <v>30</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R215" s="3" t="s">
         <v>55</v>
@@ -19546,16 +19546,16 @@
         <v>60</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G216" s="3">
         <v>30</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I216" s="3">
         <v>10.45</v>
@@ -19564,7 +19564,7 @@
         <v>15</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>52</v>
@@ -19582,7 +19582,7 @@
         <v>30</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R216" s="3" t="s">
         <v>55</v>
@@ -19605,16 +19605,16 @@
         <v>60</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G217" s="3">
         <v>30</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I217" s="3">
         <v>10.45</v>
@@ -19623,7 +19623,7 @@
         <v>15</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>52</v>
@@ -19641,7 +19641,7 @@
         <v>30</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R217" s="3" t="s">
         <v>55</v>
@@ -19664,16 +19664,16 @@
         <v>60</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G218" s="3">
         <v>30</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I218" s="3">
         <v>10.45</v>
@@ -19682,7 +19682,7 @@
         <v>15</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>52</v>
@@ -19700,7 +19700,7 @@
         <v>30</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R218" s="3" t="s">
         <v>55</v>
@@ -19723,16 +19723,16 @@
         <v>60</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G219" s="3">
         <v>30</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I219" s="3">
         <v>10.45</v>
@@ -19741,7 +19741,7 @@
         <v>15</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>52</v>
@@ -19759,7 +19759,7 @@
         <v>30</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R219" s="3" t="s">
         <v>55</v>
@@ -19782,16 +19782,16 @@
         <v>60</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G220" s="3">
         <v>30</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I220" s="3">
         <v>10.45</v>
@@ -19800,7 +19800,7 @@
         <v>15</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>52</v>
@@ -19818,7 +19818,7 @@
         <v>30</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R220" s="3" t="s">
         <v>55</v>
@@ -19841,16 +19841,16 @@
         <v>60</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G221" s="3">
         <v>30</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I221" s="3">
         <v>10.45</v>
@@ -19859,7 +19859,7 @@
         <v>15</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>52</v>
@@ -19877,7 +19877,7 @@
         <v>30</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R221" s="3" t="s">
         <v>55</v>
@@ -19900,16 +19900,16 @@
         <v>60</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G222" s="3">
         <v>30</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I222" s="3">
         <v>10.45</v>
@@ -19918,7 +19918,7 @@
         <v>15</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L222" s="3" t="s">
         <v>52</v>
@@ -19936,7 +19936,7 @@
         <v>30</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R222" s="3" t="s">
         <v>55</v>
@@ -19959,16 +19959,16 @@
         <v>60</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G223" s="3">
         <v>30</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I223" s="3">
         <v>10.45</v>
@@ -19977,7 +19977,7 @@
         <v>15</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L223" s="3" t="s">
         <v>52</v>
@@ -19995,7 +19995,7 @@
         <v>30</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R223" s="3" t="s">
         <v>55</v>
@@ -20018,16 +20018,16 @@
         <v>60</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G224" s="3">
         <v>30</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I224" s="3">
         <v>10.45</v>
@@ -20036,7 +20036,7 @@
         <v>15</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>52</v>
@@ -20054,7 +20054,7 @@
         <v>30</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R224" s="3" t="s">
         <v>55</v>
@@ -20077,16 +20077,16 @@
         <v>60</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G225" s="3">
         <v>30</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I225" s="3">
         <v>10.45</v>
@@ -20095,7 +20095,7 @@
         <v>15</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L225" s="3" t="s">
         <v>52</v>
@@ -20113,7 +20113,7 @@
         <v>30</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R225" s="3" t="s">
         <v>55</v>
@@ -20136,16 +20136,16 @@
         <v>60</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G226" s="3">
         <v>30</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I226" s="3">
         <v>10.45</v>
@@ -20154,7 +20154,7 @@
         <v>15</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>52</v>
@@ -20172,7 +20172,7 @@
         <v>30</v>
       </c>
       <c r="Q226" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R226" s="3" t="s">
         <v>55</v>
@@ -20195,16 +20195,16 @@
         <v>60</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G227" s="3">
         <v>30</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I227" s="3">
         <v>10.45</v>
@@ -20213,7 +20213,7 @@
         <v>15</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L227" s="3" t="s">
         <v>52</v>
@@ -20231,7 +20231,7 @@
         <v>30</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R227" s="3" t="s">
         <v>55</v>
@@ -20254,16 +20254,16 @@
         <v>60</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G228" s="3">
         <v>30</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I228" s="3">
         <v>10.45</v>
@@ -20272,7 +20272,7 @@
         <v>15</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L228" s="3" t="s">
         <v>52</v>
@@ -20290,7 +20290,7 @@
         <v>30</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R228" s="3" t="s">
         <v>55</v>
@@ -20313,16 +20313,16 @@
         <v>60</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G229" s="3">
         <v>30</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I229" s="3">
         <v>10.45</v>
@@ -20331,7 +20331,7 @@
         <v>15</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L229" s="3" t="s">
         <v>52</v>
@@ -20349,7 +20349,7 @@
         <v>30</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R229" s="3" t="s">
         <v>55</v>
@@ -20372,16 +20372,16 @@
         <v>60</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G230" s="3">
         <v>30</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I230" s="3">
         <v>10.45</v>
@@ -20390,7 +20390,7 @@
         <v>15</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L230" s="3" t="s">
         <v>52</v>
@@ -20408,7 +20408,7 @@
         <v>30</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R230" s="3" t="s">
         <v>55</v>
@@ -20431,16 +20431,16 @@
         <v>60</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G231" s="3">
         <v>30</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I231" s="3">
         <v>10.45</v>
@@ -20449,7 +20449,7 @@
         <v>15</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L231" s="3" t="s">
         <v>52</v>
@@ -20467,7 +20467,7 @@
         <v>30</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R231" s="3" t="s">
         <v>55</v>
@@ -20490,16 +20490,16 @@
         <v>60</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G232" s="3">
         <v>30</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I232" s="3">
         <v>10.45</v>
@@ -20508,7 +20508,7 @@
         <v>15</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L232" s="3" t="s">
         <v>52</v>
@@ -20526,7 +20526,7 @@
         <v>30</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R232" s="3" t="s">
         <v>55</v>
@@ -20549,16 +20549,16 @@
         <v>60</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G233" s="3">
         <v>30</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I233" s="3">
         <v>10.45</v>
@@ -20567,7 +20567,7 @@
         <v>15</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L233" s="3" t="s">
         <v>52</v>
@@ -20585,7 +20585,7 @@
         <v>30</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R233" s="3" t="s">
         <v>55</v>
@@ -20608,16 +20608,16 @@
         <v>60</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G234" s="3">
         <v>30</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I234" s="3">
         <v>10.45</v>
@@ -20626,7 +20626,7 @@
         <v>15</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L234" s="3" t="s">
         <v>52</v>
@@ -20644,7 +20644,7 @@
         <v>30</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R234" s="3" t="s">
         <v>55</v>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -804,9 +804,6 @@
     <t>Christian Service University, Santasi</t>
   </si>
   <si>
-    <t>22.07.2022</t>
-  </si>
-  <si>
     <t>start_time_5</t>
   </si>
   <si>
@@ -834,7 +831,10 @@
     <t>10.45</t>
   </si>
   <si>
-    <t>30.08.2022</t>
+    <t>22.08.2022</t>
+  </si>
+  <si>
+    <t>30.09.2022</t>
   </si>
 </sst>
 </file>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="J2" t="s">
         <v>270</v>
@@ -6897,13 +6897,13 @@
         <v>49</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -6920,25 +6920,25 @@
         <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J2" s="3">
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>52</v>
@@ -6956,7 +6956,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>55</v>
@@ -6979,16 +6979,16 @@
         <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="3">
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="3">
         <v>10.45</v>
@@ -6997,7 +6997,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>52</v>
@@ -7015,7 +7015,7 @@
         <v>30</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>55</v>
@@ -7038,16 +7038,16 @@
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I4" s="3">
         <v>10.45</v>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>52</v>
@@ -7074,7 +7074,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>55</v>
@@ -7097,16 +7097,16 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I5" s="3">
         <v>10.45</v>
@@ -7115,7 +7115,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>52</v>
@@ -7133,7 +7133,7 @@
         <v>30</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>55</v>
@@ -7156,16 +7156,16 @@
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="3">
         <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I6" s="3">
         <v>10.45</v>
@@ -7174,7 +7174,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>52</v>
@@ -7192,7 +7192,7 @@
         <v>30</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>55</v>
@@ -7215,16 +7215,16 @@
         <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" s="3">
         <v>10.45</v>
@@ -7233,7 +7233,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>52</v>
@@ -7251,7 +7251,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>55</v>
@@ -7274,16 +7274,16 @@
         <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" s="3">
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" s="3">
         <v>10.45</v>
@@ -7292,7 +7292,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>52</v>
@@ -7310,7 +7310,7 @@
         <v>30</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>55</v>
@@ -7333,16 +7333,16 @@
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G9" s="3">
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9" s="3">
         <v>10.45</v>
@@ -7351,7 +7351,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>52</v>
@@ -7369,7 +7369,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>55</v>
@@ -7392,16 +7392,16 @@
         <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="3">
         <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I10" s="3">
         <v>10.45</v>
@@ -7410,7 +7410,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>52</v>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>55</v>
@@ -7451,16 +7451,16 @@
         <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" s="3">
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" s="3">
         <v>10.45</v>
@@ -7469,7 +7469,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>52</v>
@@ -7487,7 +7487,7 @@
         <v>30</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>55</v>
@@ -7510,16 +7510,16 @@
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="3">
         <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" s="3">
         <v>10.45</v>
@@ -7528,7 +7528,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>52</v>
@@ -7546,7 +7546,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>55</v>
@@ -7569,16 +7569,16 @@
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G13" s="3">
         <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" s="3">
         <v>10.45</v>
@@ -7587,7 +7587,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>52</v>
@@ -7605,7 +7605,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>55</v>
@@ -7628,16 +7628,16 @@
         <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" s="3">
         <v>10.45</v>
@@ -7646,7 +7646,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>52</v>
@@ -7664,7 +7664,7 @@
         <v>30</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>55</v>
@@ -7687,16 +7687,16 @@
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G15" s="3">
         <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I15" s="3">
         <v>10.45</v>
@@ -7705,7 +7705,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>52</v>
@@ -7723,7 +7723,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>55</v>
@@ -7746,16 +7746,16 @@
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" s="3">
         <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I16" s="3">
         <v>10.45</v>
@@ -7764,7 +7764,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>52</v>
@@ -7782,7 +7782,7 @@
         <v>30</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>55</v>
@@ -7805,16 +7805,16 @@
         <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G17" s="3">
         <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I17" s="3">
         <v>10.45</v>
@@ -7823,7 +7823,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>52</v>
@@ -7841,7 +7841,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>55</v>
@@ -7864,16 +7864,16 @@
         <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G18" s="3">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I18" s="3">
         <v>10.45</v>
@@ -7882,7 +7882,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>52</v>
@@ -7900,7 +7900,7 @@
         <v>30</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>55</v>
@@ -7923,16 +7923,16 @@
         <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="3">
         <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I19" s="3">
         <v>10.45</v>
@@ -7941,7 +7941,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>52</v>
@@ -7959,7 +7959,7 @@
         <v>30</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>55</v>
@@ -7982,16 +7982,16 @@
         <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G20" s="3">
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I20" s="3">
         <v>10.45</v>
@@ -8000,7 +8000,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>52</v>
@@ -8018,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>55</v>
@@ -8041,16 +8041,16 @@
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="3">
         <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I21" s="3">
         <v>10.45</v>
@@ -8059,7 +8059,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>52</v>
@@ -8077,7 +8077,7 @@
         <v>30</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>55</v>
@@ -8100,16 +8100,16 @@
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22" s="3">
         <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I22" s="3">
         <v>10.45</v>
@@ -8118,7 +8118,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>52</v>
@@ -8136,7 +8136,7 @@
         <v>30</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>55</v>
@@ -8159,16 +8159,16 @@
         <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G23" s="3">
         <v>30</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23" s="3">
         <v>10.45</v>
@@ -8177,7 +8177,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>52</v>
@@ -8195,7 +8195,7 @@
         <v>30</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>55</v>
@@ -8218,16 +8218,16 @@
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="3">
         <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I24" s="3">
         <v>10.45</v>
@@ -8236,7 +8236,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>52</v>
@@ -8254,7 +8254,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>55</v>
@@ -8277,16 +8277,16 @@
         <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G25" s="3">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I25" s="3">
         <v>10.45</v>
@@ -8295,7 +8295,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>52</v>
@@ -8313,7 +8313,7 @@
         <v>30</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>55</v>
@@ -8336,16 +8336,16 @@
         <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G26" s="3">
         <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I26" s="3">
         <v>10.45</v>
@@ -8354,7 +8354,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>52</v>
@@ -8372,7 +8372,7 @@
         <v>30</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>55</v>
@@ -8395,16 +8395,16 @@
         <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G27" s="3">
         <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I27" s="3">
         <v>10.45</v>
@@ -8413,7 +8413,7 @@
         <v>15</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>52</v>
@@ -8431,7 +8431,7 @@
         <v>30</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>55</v>
@@ -8454,16 +8454,16 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G28" s="3">
         <v>30</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I28" s="3">
         <v>10.45</v>
@@ -8472,7 +8472,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>52</v>
@@ -8490,7 +8490,7 @@
         <v>30</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>55</v>
@@ -8513,16 +8513,16 @@
         <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="3">
         <v>30</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I29" s="3">
         <v>10.45</v>
@@ -8531,7 +8531,7 @@
         <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>52</v>
@@ -8549,7 +8549,7 @@
         <v>30</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>55</v>
@@ -8572,16 +8572,16 @@
         <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="3">
         <v>30</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I30" s="3">
         <v>10.45</v>
@@ -8590,7 +8590,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>52</v>
@@ -8608,7 +8608,7 @@
         <v>30</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>55</v>
@@ -8631,16 +8631,16 @@
         <v>60</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I31" s="3">
         <v>10.45</v>
@@ -8649,7 +8649,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>52</v>
@@ -8667,7 +8667,7 @@
         <v>30</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>55</v>
@@ -8690,16 +8690,16 @@
         <v>60</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" s="3">
         <v>30</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I32" s="3">
         <v>10.45</v>
@@ -8708,7 +8708,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>52</v>
@@ -8726,7 +8726,7 @@
         <v>30</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>55</v>
@@ -8749,16 +8749,16 @@
         <v>60</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G33" s="3">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I33" s="3">
         <v>10.45</v>
@@ -8767,7 +8767,7 @@
         <v>15</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>52</v>
@@ -8785,7 +8785,7 @@
         <v>30</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>55</v>
@@ -8808,16 +8808,16 @@
         <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" s="3">
         <v>30</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I34" s="3">
         <v>10.45</v>
@@ -8826,7 +8826,7 @@
         <v>15</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>52</v>
@@ -8844,7 +8844,7 @@
         <v>30</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>55</v>
@@ -8867,16 +8867,16 @@
         <v>60</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G35" s="3">
         <v>30</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I35" s="3">
         <v>10.45</v>
@@ -8885,7 +8885,7 @@
         <v>15</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>52</v>
@@ -8903,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>55</v>
@@ -8926,16 +8926,16 @@
         <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" s="3">
         <v>30</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I36" s="3">
         <v>10.45</v>
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>52</v>
@@ -8962,7 +8962,7 @@
         <v>30</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>55</v>
@@ -8985,16 +8985,16 @@
         <v>60</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G37" s="3">
         <v>30</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I37" s="3">
         <v>10.45</v>
@@ -9003,7 +9003,7 @@
         <v>15</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>52</v>
@@ -9021,7 +9021,7 @@
         <v>30</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>55</v>
@@ -9044,16 +9044,16 @@
         <v>60</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G38" s="3">
         <v>30</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I38" s="3">
         <v>10.45</v>
@@ -9062,7 +9062,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>52</v>
@@ -9080,7 +9080,7 @@
         <v>30</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>55</v>
@@ -9103,16 +9103,16 @@
         <v>60</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G39" s="3">
         <v>30</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I39" s="3">
         <v>10.45</v>
@@ -9121,7 +9121,7 @@
         <v>15</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>52</v>
@@ -9139,7 +9139,7 @@
         <v>30</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>55</v>
@@ -9162,16 +9162,16 @@
         <v>60</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" s="3">
         <v>30</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I40" s="3">
         <v>10.45</v>
@@ -9180,7 +9180,7 @@
         <v>15</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>52</v>
@@ -9198,7 +9198,7 @@
         <v>30</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>55</v>
@@ -9221,16 +9221,16 @@
         <v>60</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G41" s="3">
         <v>30</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I41" s="3">
         <v>10.45</v>
@@ -9239,7 +9239,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>52</v>
@@ -9257,7 +9257,7 @@
         <v>30</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>55</v>
@@ -9280,16 +9280,16 @@
         <v>60</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G42" s="3">
         <v>30</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I42" s="3">
         <v>10.45</v>
@@ -9298,7 +9298,7 @@
         <v>15</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>52</v>
@@ -9316,7 +9316,7 @@
         <v>30</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>55</v>
@@ -9339,16 +9339,16 @@
         <v>60</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G43" s="3">
         <v>30</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I43" s="3">
         <v>10.45</v>
@@ -9357,7 +9357,7 @@
         <v>15</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>52</v>
@@ -9375,7 +9375,7 @@
         <v>30</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>55</v>
@@ -9398,16 +9398,16 @@
         <v>60</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G44" s="3">
         <v>30</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I44" s="3">
         <v>10.45</v>
@@ -9416,7 +9416,7 @@
         <v>15</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>52</v>
@@ -9434,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>55</v>
@@ -9457,16 +9457,16 @@
         <v>60</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G45" s="3">
         <v>30</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I45" s="3">
         <v>10.45</v>
@@ -9475,7 +9475,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>52</v>
@@ -9493,7 +9493,7 @@
         <v>30</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>55</v>
@@ -9516,16 +9516,16 @@
         <v>60</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G46" s="3">
         <v>30</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I46" s="3">
         <v>10.45</v>
@@ -9534,7 +9534,7 @@
         <v>15</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>52</v>
@@ -9552,7 +9552,7 @@
         <v>30</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>55</v>
@@ -9575,16 +9575,16 @@
         <v>60</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G47" s="3">
         <v>30</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I47" s="3">
         <v>10.45</v>
@@ -9593,7 +9593,7 @@
         <v>15</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>52</v>
@@ -9611,7 +9611,7 @@
         <v>30</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>55</v>
@@ -9634,16 +9634,16 @@
         <v>60</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G48" s="3">
         <v>30</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I48" s="3">
         <v>10.45</v>
@@ -9652,7 +9652,7 @@
         <v>15</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>52</v>
@@ -9670,7 +9670,7 @@
         <v>30</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>55</v>
@@ -9693,16 +9693,16 @@
         <v>60</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G49" s="3">
         <v>30</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I49" s="3">
         <v>10.45</v>
@@ -9711,7 +9711,7 @@
         <v>15</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>52</v>
@@ -9729,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>55</v>
@@ -9752,16 +9752,16 @@
         <v>60</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G50" s="3">
         <v>30</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I50" s="3">
         <v>10.45</v>
@@ -9770,7 +9770,7 @@
         <v>15</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>52</v>
@@ -9788,7 +9788,7 @@
         <v>30</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>55</v>
@@ -9811,16 +9811,16 @@
         <v>60</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G51" s="3">
         <v>30</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I51" s="3">
         <v>10.45</v>
@@ -9829,7 +9829,7 @@
         <v>15</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>52</v>
@@ -9847,7 +9847,7 @@
         <v>30</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>55</v>
@@ -9870,16 +9870,16 @@
         <v>60</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G52" s="3">
         <v>30</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I52" s="3">
         <v>10.45</v>
@@ -9888,7 +9888,7 @@
         <v>15</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>52</v>
@@ -9906,7 +9906,7 @@
         <v>30</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>55</v>
@@ -9929,16 +9929,16 @@
         <v>60</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G53" s="3">
         <v>30</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I53" s="3">
         <v>10.45</v>
@@ -9947,7 +9947,7 @@
         <v>15</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>52</v>
@@ -9965,7 +9965,7 @@
         <v>30</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>55</v>
@@ -9988,16 +9988,16 @@
         <v>60</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G54" s="3">
         <v>30</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I54" s="3">
         <v>10.45</v>
@@ -10006,7 +10006,7 @@
         <v>15</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>52</v>
@@ -10024,7 +10024,7 @@
         <v>30</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>55</v>
@@ -10047,16 +10047,16 @@
         <v>60</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G55" s="3">
         <v>30</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I55" s="3">
         <v>10.45</v>
@@ -10065,7 +10065,7 @@
         <v>15</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>52</v>
@@ -10083,7 +10083,7 @@
         <v>30</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>55</v>
@@ -10106,16 +10106,16 @@
         <v>60</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G56" s="3">
         <v>30</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I56" s="3">
         <v>10.45</v>
@@ -10124,7 +10124,7 @@
         <v>15</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>52</v>
@@ -10142,7 +10142,7 @@
         <v>30</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>55</v>
@@ -10165,16 +10165,16 @@
         <v>60</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G57" s="3">
         <v>30</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I57" s="3">
         <v>10.45</v>
@@ -10183,7 +10183,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>52</v>
@@ -10201,7 +10201,7 @@
         <v>30</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>55</v>
@@ -10224,16 +10224,16 @@
         <v>60</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G58" s="3">
         <v>30</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I58" s="3">
         <v>10.45</v>
@@ -10242,7 +10242,7 @@
         <v>15</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>52</v>
@@ -10260,7 +10260,7 @@
         <v>30</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>55</v>
@@ -10283,16 +10283,16 @@
         <v>60</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G59" s="3">
         <v>30</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I59" s="3">
         <v>10.45</v>
@@ -10301,7 +10301,7 @@
         <v>15</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>52</v>
@@ -10319,7 +10319,7 @@
         <v>30</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>55</v>
@@ -10342,16 +10342,16 @@
         <v>60</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G60" s="3">
         <v>30</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I60" s="3">
         <v>10.45</v>
@@ -10360,7 +10360,7 @@
         <v>15</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>52</v>
@@ -10378,7 +10378,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>55</v>
@@ -10401,16 +10401,16 @@
         <v>60</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G61" s="3">
         <v>30</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I61" s="3">
         <v>10.45</v>
@@ -10419,7 +10419,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>52</v>
@@ -10437,7 +10437,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>55</v>
@@ -10460,16 +10460,16 @@
         <v>60</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G62" s="3">
         <v>30</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I62" s="3">
         <v>10.45</v>
@@ -10478,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>52</v>
@@ -10496,7 +10496,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>55</v>
@@ -10519,16 +10519,16 @@
         <v>60</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G63" s="3">
         <v>30</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I63" s="3">
         <v>10.45</v>
@@ -10537,7 +10537,7 @@
         <v>15</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>52</v>
@@ -10555,7 +10555,7 @@
         <v>30</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>55</v>
@@ -10578,16 +10578,16 @@
         <v>60</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G64" s="3">
         <v>30</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I64" s="3">
         <v>10.45</v>
@@ -10596,7 +10596,7 @@
         <v>15</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>52</v>
@@ -10614,7 +10614,7 @@
         <v>30</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>55</v>
@@ -10637,16 +10637,16 @@
         <v>60</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G65" s="3">
         <v>30</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I65" s="3">
         <v>10.45</v>
@@ -10655,7 +10655,7 @@
         <v>15</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>52</v>
@@ -10673,7 +10673,7 @@
         <v>30</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>55</v>
@@ -10696,16 +10696,16 @@
         <v>60</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G66" s="3">
         <v>30</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I66" s="3">
         <v>10.45</v>
@@ -10714,7 +10714,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>52</v>
@@ -10732,7 +10732,7 @@
         <v>30</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>55</v>
@@ -10755,16 +10755,16 @@
         <v>60</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G67" s="3">
         <v>30</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I67" s="3">
         <v>10.45</v>
@@ -10773,7 +10773,7 @@
         <v>15</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>52</v>
@@ -10791,7 +10791,7 @@
         <v>30</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>55</v>
@@ -10814,16 +10814,16 @@
         <v>60</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G68" s="3">
         <v>30</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I68" s="3">
         <v>10.45</v>
@@ -10832,7 +10832,7 @@
         <v>15</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>52</v>
@@ -10850,7 +10850,7 @@
         <v>30</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>55</v>
@@ -10873,16 +10873,16 @@
         <v>60</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G69" s="3">
         <v>30</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I69" s="3">
         <v>10.45</v>
@@ -10891,7 +10891,7 @@
         <v>15</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>52</v>
@@ -10909,7 +10909,7 @@
         <v>30</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>55</v>
@@ -10932,16 +10932,16 @@
         <v>60</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G70" s="3">
         <v>30</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I70" s="3">
         <v>10.45</v>
@@ -10950,7 +10950,7 @@
         <v>15</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>52</v>
@@ -10968,7 +10968,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>55</v>
@@ -10991,16 +10991,16 @@
         <v>60</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G71" s="3">
         <v>30</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I71" s="3">
         <v>10.45</v>
@@ -11009,7 +11009,7 @@
         <v>15</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>52</v>
@@ -11027,7 +11027,7 @@
         <v>30</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>55</v>
@@ -11050,16 +11050,16 @@
         <v>60</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G72" s="3">
         <v>30</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I72" s="3">
         <v>10.45</v>
@@ -11068,7 +11068,7 @@
         <v>15</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>52</v>
@@ -11086,7 +11086,7 @@
         <v>30</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>55</v>
@@ -11109,16 +11109,16 @@
         <v>60</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G73" s="3">
         <v>30</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I73" s="3">
         <v>10.45</v>
@@ -11127,7 +11127,7 @@
         <v>15</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>52</v>
@@ -11145,7 +11145,7 @@
         <v>30</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>55</v>
@@ -11168,16 +11168,16 @@
         <v>60</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G74" s="3">
         <v>30</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I74" s="3">
         <v>10.45</v>
@@ -11186,7 +11186,7 @@
         <v>15</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>52</v>
@@ -11204,7 +11204,7 @@
         <v>30</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>55</v>
@@ -11227,16 +11227,16 @@
         <v>60</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G75" s="3">
         <v>30</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I75" s="3">
         <v>10.45</v>
@@ -11245,7 +11245,7 @@
         <v>15</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>52</v>
@@ -11263,7 +11263,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>55</v>
@@ -11286,16 +11286,16 @@
         <v>60</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G76" s="3">
         <v>30</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I76" s="3">
         <v>10.45</v>
@@ -11304,7 +11304,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>52</v>
@@ -11322,7 +11322,7 @@
         <v>30</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>55</v>
@@ -11345,16 +11345,16 @@
         <v>60</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G77" s="3">
         <v>30</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I77" s="3">
         <v>10.45</v>
@@ -11363,7 +11363,7 @@
         <v>15</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>52</v>
@@ -11381,7 +11381,7 @@
         <v>30</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>55</v>
@@ -11404,16 +11404,16 @@
         <v>60</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G78" s="3">
         <v>30</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I78" s="3">
         <v>10.45</v>
@@ -11422,7 +11422,7 @@
         <v>15</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>52</v>
@@ -11440,7 +11440,7 @@
         <v>30</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>55</v>
@@ -11463,16 +11463,16 @@
         <v>60</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G79" s="3">
         <v>30</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I79" s="3">
         <v>10.45</v>
@@ -11481,7 +11481,7 @@
         <v>15</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>52</v>
@@ -11499,7 +11499,7 @@
         <v>30</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>55</v>
@@ -11522,16 +11522,16 @@
         <v>60</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G80" s="3">
         <v>30</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I80" s="3">
         <v>10.45</v>
@@ -11540,7 +11540,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>52</v>
@@ -11558,7 +11558,7 @@
         <v>30</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>55</v>
@@ -11581,16 +11581,16 @@
         <v>60</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G81" s="3">
         <v>30</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I81" s="3">
         <v>10.45</v>
@@ -11599,7 +11599,7 @@
         <v>15</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>52</v>
@@ -11617,7 +11617,7 @@
         <v>30</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>55</v>
@@ -11640,16 +11640,16 @@
         <v>60</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G82" s="3">
         <v>30</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I82" s="3">
         <v>10.45</v>
@@ -11658,7 +11658,7 @@
         <v>15</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>52</v>
@@ -11676,7 +11676,7 @@
         <v>30</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>55</v>
@@ -11699,16 +11699,16 @@
         <v>60</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G83" s="3">
         <v>30</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I83" s="3">
         <v>10.45</v>
@@ -11717,7 +11717,7 @@
         <v>15</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>52</v>
@@ -11735,7 +11735,7 @@
         <v>30</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>55</v>
@@ -11758,16 +11758,16 @@
         <v>60</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G84" s="3">
         <v>30</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I84" s="3">
         <v>10.45</v>
@@ -11776,7 +11776,7 @@
         <v>15</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>52</v>
@@ -11794,7 +11794,7 @@
         <v>30</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>55</v>
@@ -11817,16 +11817,16 @@
         <v>60</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G85" s="3">
         <v>30</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I85" s="3">
         <v>10.45</v>
@@ -11835,7 +11835,7 @@
         <v>15</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>52</v>
@@ -11853,7 +11853,7 @@
         <v>30</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>55</v>
@@ -11876,16 +11876,16 @@
         <v>60</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G86" s="3">
         <v>30</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I86" s="3">
         <v>10.45</v>
@@ -11894,7 +11894,7 @@
         <v>15</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>52</v>
@@ -11912,7 +11912,7 @@
         <v>30</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>55</v>
@@ -11935,16 +11935,16 @@
         <v>60</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G87" s="3">
         <v>30</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I87" s="3">
         <v>10.45</v>
@@ -11953,7 +11953,7 @@
         <v>15</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>52</v>
@@ -11971,7 +11971,7 @@
         <v>30</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>55</v>
@@ -11994,16 +11994,16 @@
         <v>60</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G88" s="3">
         <v>30</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I88" s="3">
         <v>10.45</v>
@@ -12012,7 +12012,7 @@
         <v>15</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>52</v>
@@ -12030,7 +12030,7 @@
         <v>30</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>55</v>
@@ -12053,16 +12053,16 @@
         <v>60</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G89" s="3">
         <v>30</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I89" s="3">
         <v>10.45</v>
@@ -12071,7 +12071,7 @@
         <v>15</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>52</v>
@@ -12089,7 +12089,7 @@
         <v>30</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>55</v>
@@ -12112,16 +12112,16 @@
         <v>60</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G90" s="3">
         <v>30</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I90" s="3">
         <v>10.45</v>
@@ -12130,7 +12130,7 @@
         <v>15</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>52</v>
@@ -12148,7 +12148,7 @@
         <v>30</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>55</v>
@@ -12171,16 +12171,16 @@
         <v>60</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G91" s="3">
         <v>30</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I91" s="3">
         <v>10.45</v>
@@ -12189,7 +12189,7 @@
         <v>15</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>52</v>
@@ -12207,7 +12207,7 @@
         <v>30</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>55</v>
@@ -12230,16 +12230,16 @@
         <v>60</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G92" s="3">
         <v>30</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I92" s="3">
         <v>10.45</v>
@@ -12248,7 +12248,7 @@
         <v>15</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>52</v>
@@ -12266,7 +12266,7 @@
         <v>30</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>55</v>
@@ -12289,16 +12289,16 @@
         <v>60</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G93" s="3">
         <v>30</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I93" s="3">
         <v>10.45</v>
@@ -12307,7 +12307,7 @@
         <v>15</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>52</v>
@@ -12325,7 +12325,7 @@
         <v>30</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>55</v>
@@ -12348,16 +12348,16 @@
         <v>60</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G94" s="3">
         <v>30</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I94" s="3">
         <v>10.45</v>
@@ -12366,7 +12366,7 @@
         <v>15</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>52</v>
@@ -12384,7 +12384,7 @@
         <v>30</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>55</v>
@@ -12407,16 +12407,16 @@
         <v>60</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G95" s="3">
         <v>30</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I95" s="3">
         <v>10.45</v>
@@ -12425,7 +12425,7 @@
         <v>15</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>52</v>
@@ -12443,7 +12443,7 @@
         <v>30</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>55</v>
@@ -12466,16 +12466,16 @@
         <v>60</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G96" s="3">
         <v>30</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I96" s="3">
         <v>10.45</v>
@@ -12484,7 +12484,7 @@
         <v>15</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>52</v>
@@ -12502,7 +12502,7 @@
         <v>30</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>55</v>
@@ -12525,16 +12525,16 @@
         <v>60</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G97" s="3">
         <v>30</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I97" s="3">
         <v>10.45</v>
@@ -12543,7 +12543,7 @@
         <v>15</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>52</v>
@@ -12561,7 +12561,7 @@
         <v>30</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>55</v>
@@ -12584,16 +12584,16 @@
         <v>60</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G98" s="3">
         <v>30</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I98" s="3">
         <v>10.45</v>
@@ -12602,7 +12602,7 @@
         <v>15</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>52</v>
@@ -12620,7 +12620,7 @@
         <v>30</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>55</v>
@@ -12643,16 +12643,16 @@
         <v>60</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G99" s="3">
         <v>30</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I99" s="3">
         <v>10.45</v>
@@ -12661,7 +12661,7 @@
         <v>15</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>52</v>
@@ -12679,7 +12679,7 @@
         <v>30</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R99" s="3" t="s">
         <v>55</v>
@@ -12702,16 +12702,16 @@
         <v>60</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G100" s="3">
         <v>30</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I100" s="3">
         <v>10.45</v>
@@ -12720,7 +12720,7 @@
         <v>15</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>52</v>
@@ -12738,7 +12738,7 @@
         <v>30</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>55</v>
@@ -12761,16 +12761,16 @@
         <v>60</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G101" s="3">
         <v>30</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I101" s="3">
         <v>10.45</v>
@@ -12779,7 +12779,7 @@
         <v>15</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>52</v>
@@ -12797,7 +12797,7 @@
         <v>30</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>55</v>
@@ -12820,16 +12820,16 @@
         <v>60</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G102" s="3">
         <v>30</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I102" s="3">
         <v>10.45</v>
@@ -12838,7 +12838,7 @@
         <v>15</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>52</v>
@@ -12856,7 +12856,7 @@
         <v>30</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>55</v>
@@ -12879,16 +12879,16 @@
         <v>60</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G103" s="3">
         <v>30</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I103" s="3">
         <v>10.45</v>
@@ -12897,7 +12897,7 @@
         <v>15</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>52</v>
@@ -12915,7 +12915,7 @@
         <v>30</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R103" s="3" t="s">
         <v>55</v>
@@ -12938,16 +12938,16 @@
         <v>60</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G104" s="3">
         <v>30</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I104" s="3">
         <v>10.45</v>
@@ -12956,7 +12956,7 @@
         <v>15</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>52</v>
@@ -12974,7 +12974,7 @@
         <v>30</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R104" s="3" t="s">
         <v>55</v>
@@ -12997,16 +12997,16 @@
         <v>60</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G105" s="3">
         <v>30</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I105" s="3">
         <v>10.45</v>
@@ -13015,7 +13015,7 @@
         <v>15</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>52</v>
@@ -13033,7 +13033,7 @@
         <v>30</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R105" s="3" t="s">
         <v>55</v>
@@ -13056,16 +13056,16 @@
         <v>60</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G106" s="3">
         <v>30</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I106" s="3">
         <v>10.45</v>
@@ -13074,7 +13074,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>52</v>
@@ -13092,7 +13092,7 @@
         <v>30</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R106" s="3" t="s">
         <v>55</v>
@@ -13115,16 +13115,16 @@
         <v>60</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G107" s="3">
         <v>30</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I107" s="3">
         <v>10.45</v>
@@ -13133,7 +13133,7 @@
         <v>15</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>52</v>
@@ -13151,7 +13151,7 @@
         <v>30</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R107" s="3" t="s">
         <v>55</v>
@@ -13174,16 +13174,16 @@
         <v>60</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G108" s="3">
         <v>30</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I108" s="3">
         <v>10.45</v>
@@ -13192,7 +13192,7 @@
         <v>15</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>52</v>
@@ -13210,7 +13210,7 @@
         <v>30</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R108" s="3" t="s">
         <v>55</v>
@@ -13233,16 +13233,16 @@
         <v>60</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G109" s="3">
         <v>30</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I109" s="3">
         <v>10.45</v>
@@ -13251,7 +13251,7 @@
         <v>15</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>52</v>
@@ -13269,7 +13269,7 @@
         <v>30</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>55</v>
@@ -13292,16 +13292,16 @@
         <v>60</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G110" s="3">
         <v>30</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I110" s="3">
         <v>10.45</v>
@@ -13310,7 +13310,7 @@
         <v>15</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>52</v>
@@ -13328,7 +13328,7 @@
         <v>30</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R110" s="3" t="s">
         <v>55</v>
@@ -13351,16 +13351,16 @@
         <v>60</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G111" s="3">
         <v>30</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I111" s="3">
         <v>10.45</v>
@@ -13369,7 +13369,7 @@
         <v>15</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>52</v>
@@ -13387,7 +13387,7 @@
         <v>30</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R111" s="3" t="s">
         <v>55</v>
@@ -13410,16 +13410,16 @@
         <v>60</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G112" s="3">
         <v>30</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I112" s="3">
         <v>10.45</v>
@@ -13428,7 +13428,7 @@
         <v>15</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>52</v>
@@ -13446,7 +13446,7 @@
         <v>30</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R112" s="3" t="s">
         <v>55</v>
@@ -13469,16 +13469,16 @@
         <v>60</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G113" s="3">
         <v>30</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I113" s="3">
         <v>10.45</v>
@@ -13487,7 +13487,7 @@
         <v>15</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>52</v>
@@ -13505,7 +13505,7 @@
         <v>30</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R113" s="3" t="s">
         <v>55</v>
@@ -13528,16 +13528,16 @@
         <v>60</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G114" s="3">
         <v>30</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I114" s="3">
         <v>10.45</v>
@@ -13546,7 +13546,7 @@
         <v>15</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>52</v>
@@ -13564,7 +13564,7 @@
         <v>30</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R114" s="3" t="s">
         <v>55</v>
@@ -13587,16 +13587,16 @@
         <v>60</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G115" s="3">
         <v>30</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I115" s="3">
         <v>10.45</v>
@@ -13605,7 +13605,7 @@
         <v>15</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>52</v>
@@ -13623,7 +13623,7 @@
         <v>30</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R115" s="3" t="s">
         <v>55</v>
@@ -13646,16 +13646,16 @@
         <v>60</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G116" s="3">
         <v>30</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I116" s="3">
         <v>10.45</v>
@@ -13664,7 +13664,7 @@
         <v>15</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>52</v>
@@ -13682,7 +13682,7 @@
         <v>30</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R116" s="3" t="s">
         <v>55</v>
@@ -13705,16 +13705,16 @@
         <v>60</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G117" s="3">
         <v>30</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I117" s="3">
         <v>10.45</v>
@@ -13723,7 +13723,7 @@
         <v>15</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>52</v>
@@ -13741,7 +13741,7 @@
         <v>30</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R117" s="3" t="s">
         <v>55</v>
@@ -13764,16 +13764,16 @@
         <v>60</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G118" s="3">
         <v>30</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I118" s="3">
         <v>10.45</v>
@@ -13782,7 +13782,7 @@
         <v>15</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>52</v>
@@ -13800,7 +13800,7 @@
         <v>30</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R118" s="3" t="s">
         <v>55</v>
@@ -13823,16 +13823,16 @@
         <v>60</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G119" s="3">
         <v>30</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I119" s="3">
         <v>10.45</v>
@@ -13841,7 +13841,7 @@
         <v>15</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>52</v>
@@ -13859,7 +13859,7 @@
         <v>30</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R119" s="3" t="s">
         <v>55</v>
@@ -13882,16 +13882,16 @@
         <v>60</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G120" s="3">
         <v>30</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I120" s="3">
         <v>10.45</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>52</v>
@@ -13918,7 +13918,7 @@
         <v>30</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R120" s="3" t="s">
         <v>55</v>
@@ -13941,16 +13941,16 @@
         <v>60</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G121" s="3">
         <v>30</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I121" s="3">
         <v>10.45</v>
@@ -13959,7 +13959,7 @@
         <v>15</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>52</v>
@@ -13977,7 +13977,7 @@
         <v>30</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R121" s="3" t="s">
         <v>55</v>
@@ -14000,16 +14000,16 @@
         <v>60</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G122" s="3">
         <v>30</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I122" s="3">
         <v>10.45</v>
@@ -14018,7 +14018,7 @@
         <v>15</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>52</v>
@@ -14036,7 +14036,7 @@
         <v>30</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R122" s="3" t="s">
         <v>55</v>
@@ -14059,16 +14059,16 @@
         <v>60</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G123" s="3">
         <v>30</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I123" s="3">
         <v>10.45</v>
@@ -14077,7 +14077,7 @@
         <v>15</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>52</v>
@@ -14095,7 +14095,7 @@
         <v>30</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R123" s="3" t="s">
         <v>55</v>
@@ -14118,16 +14118,16 @@
         <v>60</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G124" s="3">
         <v>30</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I124" s="3">
         <v>10.45</v>
@@ -14136,7 +14136,7 @@
         <v>15</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>52</v>
@@ -14154,7 +14154,7 @@
         <v>30</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R124" s="3" t="s">
         <v>55</v>
@@ -14177,16 +14177,16 @@
         <v>60</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G125" s="3">
         <v>30</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I125" s="3">
         <v>10.45</v>
@@ -14195,7 +14195,7 @@
         <v>15</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>52</v>
@@ -14213,7 +14213,7 @@
         <v>30</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R125" s="3" t="s">
         <v>55</v>
@@ -14236,16 +14236,16 @@
         <v>60</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G126" s="3">
         <v>30</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I126" s="3">
         <v>10.45</v>
@@ -14254,7 +14254,7 @@
         <v>15</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>52</v>
@@ -14272,7 +14272,7 @@
         <v>30</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R126" s="3" t="s">
         <v>55</v>
@@ -14295,16 +14295,16 @@
         <v>60</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G127" s="3">
         <v>30</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I127" s="3">
         <v>10.45</v>
@@ -14313,7 +14313,7 @@
         <v>15</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>52</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R127" s="3" t="s">
         <v>55</v>
@@ -14354,16 +14354,16 @@
         <v>60</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G128" s="3">
         <v>30</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I128" s="3">
         <v>10.45</v>
@@ -14372,7 +14372,7 @@
         <v>15</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>52</v>
@@ -14390,7 +14390,7 @@
         <v>30</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R128" s="3" t="s">
         <v>55</v>
@@ -14413,16 +14413,16 @@
         <v>60</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G129" s="3">
         <v>30</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I129" s="3">
         <v>10.45</v>
@@ -14431,7 +14431,7 @@
         <v>15</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>52</v>
@@ -14449,7 +14449,7 @@
         <v>30</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R129" s="3" t="s">
         <v>55</v>
@@ -14472,16 +14472,16 @@
         <v>60</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G130" s="3">
         <v>30</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I130" s="3">
         <v>10.45</v>
@@ -14490,7 +14490,7 @@
         <v>15</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>52</v>
@@ -14508,7 +14508,7 @@
         <v>30</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R130" s="3" t="s">
         <v>55</v>
@@ -14531,16 +14531,16 @@
         <v>60</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G131" s="3">
         <v>30</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I131" s="3">
         <v>10.45</v>
@@ -14549,7 +14549,7 @@
         <v>15</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>52</v>
@@ -14567,7 +14567,7 @@
         <v>30</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R131" s="3" t="s">
         <v>55</v>
@@ -14590,16 +14590,16 @@
         <v>60</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G132" s="3">
         <v>30</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I132" s="3">
         <v>10.45</v>
@@ -14608,7 +14608,7 @@
         <v>15</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>52</v>
@@ -14626,7 +14626,7 @@
         <v>30</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R132" s="3" t="s">
         <v>55</v>
@@ -14649,16 +14649,16 @@
         <v>60</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G133" s="3">
         <v>30</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I133" s="3">
         <v>10.45</v>
@@ -14667,7 +14667,7 @@
         <v>15</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>52</v>
@@ -14685,7 +14685,7 @@
         <v>30</v>
       </c>
       <c r="Q133" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R133" s="3" t="s">
         <v>55</v>
@@ -14708,16 +14708,16 @@
         <v>60</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G134" s="3">
         <v>30</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I134" s="3">
         <v>10.45</v>
@@ -14726,7 +14726,7 @@
         <v>15</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>52</v>
@@ -14744,7 +14744,7 @@
         <v>30</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R134" s="3" t="s">
         <v>55</v>
@@ -14767,16 +14767,16 @@
         <v>60</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G135" s="3">
         <v>30</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I135" s="3">
         <v>10.45</v>
@@ -14785,7 +14785,7 @@
         <v>15</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>52</v>
@@ -14803,7 +14803,7 @@
         <v>30</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R135" s="3" t="s">
         <v>55</v>
@@ -14826,16 +14826,16 @@
         <v>60</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G136" s="3">
         <v>30</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I136" s="3">
         <v>10.45</v>
@@ -14844,7 +14844,7 @@
         <v>15</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>52</v>
@@ -14862,7 +14862,7 @@
         <v>30</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R136" s="3" t="s">
         <v>55</v>
@@ -14885,16 +14885,16 @@
         <v>60</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G137" s="3">
         <v>30</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I137" s="3">
         <v>10.45</v>
@@ -14903,7 +14903,7 @@
         <v>15</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>52</v>
@@ -14921,7 +14921,7 @@
         <v>30</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R137" s="3" t="s">
         <v>55</v>
@@ -14944,16 +14944,16 @@
         <v>60</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G138" s="3">
         <v>30</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I138" s="3">
         <v>10.45</v>
@@ -14962,7 +14962,7 @@
         <v>15</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>52</v>
@@ -14980,7 +14980,7 @@
         <v>30</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R138" s="3" t="s">
         <v>55</v>
@@ -15003,16 +15003,16 @@
         <v>60</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G139" s="3">
         <v>30</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I139" s="3">
         <v>10.45</v>
@@ -15021,7 +15021,7 @@
         <v>15</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>52</v>
@@ -15039,7 +15039,7 @@
         <v>30</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R139" s="3" t="s">
         <v>55</v>
@@ -15062,16 +15062,16 @@
         <v>60</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G140" s="3">
         <v>30</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I140" s="3">
         <v>10.45</v>
@@ -15080,7 +15080,7 @@
         <v>15</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>52</v>
@@ -15098,7 +15098,7 @@
         <v>30</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R140" s="3" t="s">
         <v>55</v>
@@ -15121,16 +15121,16 @@
         <v>60</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G141" s="3">
         <v>30</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I141" s="3">
         <v>10.45</v>
@@ -15139,7 +15139,7 @@
         <v>15</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>52</v>
@@ -15157,7 +15157,7 @@
         <v>30</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R141" s="3" t="s">
         <v>55</v>
@@ -15180,16 +15180,16 @@
         <v>60</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G142" s="3">
         <v>30</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I142" s="3">
         <v>10.45</v>
@@ -15198,7 +15198,7 @@
         <v>15</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>52</v>
@@ -15216,7 +15216,7 @@
         <v>30</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R142" s="3" t="s">
         <v>55</v>
@@ -15239,16 +15239,16 @@
         <v>60</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G143" s="3">
         <v>30</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I143" s="3">
         <v>10.45</v>
@@ -15257,7 +15257,7 @@
         <v>15</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>52</v>
@@ -15275,7 +15275,7 @@
         <v>30</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R143" s="3" t="s">
         <v>55</v>
@@ -15298,16 +15298,16 @@
         <v>60</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G144" s="3">
         <v>30</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I144" s="3">
         <v>10.45</v>
@@ -15316,7 +15316,7 @@
         <v>15</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>52</v>
@@ -15334,7 +15334,7 @@
         <v>30</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R144" s="3" t="s">
         <v>55</v>
@@ -15357,16 +15357,16 @@
         <v>60</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G145" s="3">
         <v>30</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I145" s="3">
         <v>10.45</v>
@@ -15375,7 +15375,7 @@
         <v>15</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>52</v>
@@ -15393,7 +15393,7 @@
         <v>30</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R145" s="3" t="s">
         <v>55</v>
@@ -15416,16 +15416,16 @@
         <v>60</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G146" s="3">
         <v>30</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I146" s="3">
         <v>10.45</v>
@@ -15434,7 +15434,7 @@
         <v>15</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>52</v>
@@ -15452,7 +15452,7 @@
         <v>30</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R146" s="3" t="s">
         <v>55</v>
@@ -15475,16 +15475,16 @@
         <v>60</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G147" s="3">
         <v>30</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I147" s="3">
         <v>10.45</v>
@@ -15493,7 +15493,7 @@
         <v>15</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>52</v>
@@ -15511,7 +15511,7 @@
         <v>30</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R147" s="3" t="s">
         <v>55</v>
@@ -15534,16 +15534,16 @@
         <v>60</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G148" s="3">
         <v>30</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I148" s="3">
         <v>10.45</v>
@@ -15552,7 +15552,7 @@
         <v>15</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>52</v>
@@ -15570,7 +15570,7 @@
         <v>30</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R148" s="3" t="s">
         <v>55</v>
@@ -15593,16 +15593,16 @@
         <v>60</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G149" s="3">
         <v>30</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I149" s="3">
         <v>10.45</v>
@@ -15611,7 +15611,7 @@
         <v>15</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>52</v>
@@ -15629,7 +15629,7 @@
         <v>30</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R149" s="3" t="s">
         <v>55</v>
@@ -15652,16 +15652,16 @@
         <v>60</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G150" s="3">
         <v>30</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I150" s="3">
         <v>10.45</v>
@@ -15670,7 +15670,7 @@
         <v>15</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>52</v>
@@ -15688,7 +15688,7 @@
         <v>30</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R150" s="3" t="s">
         <v>55</v>
@@ -15711,16 +15711,16 @@
         <v>60</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G151" s="3">
         <v>30</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I151" s="3">
         <v>10.45</v>
@@ -15729,7 +15729,7 @@
         <v>15</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>52</v>
@@ -15747,7 +15747,7 @@
         <v>30</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R151" s="3" t="s">
         <v>55</v>
@@ -15770,16 +15770,16 @@
         <v>60</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G152" s="3">
         <v>30</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I152" s="3">
         <v>10.45</v>
@@ -15788,7 +15788,7 @@
         <v>15</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>52</v>
@@ -15806,7 +15806,7 @@
         <v>30</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R152" s="3" t="s">
         <v>55</v>
@@ -15829,16 +15829,16 @@
         <v>60</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G153" s="3">
         <v>30</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I153" s="3">
         <v>10.45</v>
@@ -15847,7 +15847,7 @@
         <v>15</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>52</v>
@@ -15865,7 +15865,7 @@
         <v>30</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R153" s="3" t="s">
         <v>55</v>
@@ -15888,16 +15888,16 @@
         <v>60</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G154" s="3">
         <v>30</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I154" s="3">
         <v>10.45</v>
@@ -15906,7 +15906,7 @@
         <v>15</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>52</v>
@@ -15924,7 +15924,7 @@
         <v>30</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R154" s="3" t="s">
         <v>55</v>
@@ -15947,16 +15947,16 @@
         <v>60</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G155" s="3">
         <v>30</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I155" s="3">
         <v>10.45</v>
@@ -15965,7 +15965,7 @@
         <v>15</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>52</v>
@@ -15983,7 +15983,7 @@
         <v>30</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R155" s="3" t="s">
         <v>55</v>
@@ -16006,16 +16006,16 @@
         <v>60</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G156" s="3">
         <v>30</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I156" s="3">
         <v>10.45</v>
@@ -16024,7 +16024,7 @@
         <v>15</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>52</v>
@@ -16042,7 +16042,7 @@
         <v>30</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R156" s="3" t="s">
         <v>55</v>
@@ -16065,16 +16065,16 @@
         <v>60</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G157" s="3">
         <v>30</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I157" s="3">
         <v>10.45</v>
@@ -16083,7 +16083,7 @@
         <v>15</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>52</v>
@@ -16101,7 +16101,7 @@
         <v>30</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R157" s="3" t="s">
         <v>55</v>
@@ -16124,16 +16124,16 @@
         <v>60</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G158" s="3">
         <v>30</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I158" s="3">
         <v>10.45</v>
@@ -16142,7 +16142,7 @@
         <v>15</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>52</v>
@@ -16160,7 +16160,7 @@
         <v>30</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R158" s="3" t="s">
         <v>55</v>
@@ -16183,16 +16183,16 @@
         <v>60</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G159" s="3">
         <v>30</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I159" s="3">
         <v>10.45</v>
@@ -16201,7 +16201,7 @@
         <v>15</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>52</v>
@@ -16219,7 +16219,7 @@
         <v>30</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R159" s="3" t="s">
         <v>55</v>
@@ -16242,16 +16242,16 @@
         <v>60</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G160" s="3">
         <v>30</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I160" s="3">
         <v>10.45</v>
@@ -16260,7 +16260,7 @@
         <v>15</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>52</v>
@@ -16278,7 +16278,7 @@
         <v>30</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R160" s="3" t="s">
         <v>55</v>
@@ -16301,16 +16301,16 @@
         <v>60</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G161" s="3">
         <v>30</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I161" s="3">
         <v>10.45</v>
@@ -16319,7 +16319,7 @@
         <v>15</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>52</v>
@@ -16337,7 +16337,7 @@
         <v>30</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R161" s="3" t="s">
         <v>55</v>
@@ -16360,16 +16360,16 @@
         <v>60</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G162" s="3">
         <v>30</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I162" s="3">
         <v>10.45</v>
@@ -16378,7 +16378,7 @@
         <v>15</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>52</v>
@@ -16396,7 +16396,7 @@
         <v>30</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R162" s="3" t="s">
         <v>55</v>
@@ -16419,16 +16419,16 @@
         <v>60</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G163" s="3">
         <v>30</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I163" s="3">
         <v>10.45</v>
@@ -16437,7 +16437,7 @@
         <v>15</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>52</v>
@@ -16455,7 +16455,7 @@
         <v>30</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R163" s="3" t="s">
         <v>55</v>
@@ -16478,16 +16478,16 @@
         <v>60</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G164" s="3">
         <v>30</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I164" s="3">
         <v>10.45</v>
@@ -16496,7 +16496,7 @@
         <v>15</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>52</v>
@@ -16514,7 +16514,7 @@
         <v>30</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R164" s="3" t="s">
         <v>55</v>
@@ -16537,16 +16537,16 @@
         <v>60</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G165" s="3">
         <v>30</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I165" s="3">
         <v>10.45</v>
@@ -16555,7 +16555,7 @@
         <v>15</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>52</v>
@@ -16573,7 +16573,7 @@
         <v>30</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R165" s="3" t="s">
         <v>55</v>
@@ -16596,16 +16596,16 @@
         <v>60</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G166" s="3">
         <v>30</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I166" s="3">
         <v>10.45</v>
@@ -16614,7 +16614,7 @@
         <v>15</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>52</v>
@@ -16632,7 +16632,7 @@
         <v>30</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R166" s="3" t="s">
         <v>55</v>
@@ -16655,16 +16655,16 @@
         <v>60</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G167" s="3">
         <v>30</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I167" s="3">
         <v>10.45</v>
@@ -16673,7 +16673,7 @@
         <v>15</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>52</v>
@@ -16691,7 +16691,7 @@
         <v>30</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R167" s="3" t="s">
         <v>55</v>
@@ -16714,16 +16714,16 @@
         <v>60</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G168" s="3">
         <v>30</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I168" s="3">
         <v>10.45</v>
@@ -16732,7 +16732,7 @@
         <v>15</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>52</v>
@@ -16750,7 +16750,7 @@
         <v>30</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R168" s="3" t="s">
         <v>55</v>
@@ -16773,16 +16773,16 @@
         <v>60</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G169" s="3">
         <v>30</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I169" s="3">
         <v>10.45</v>
@@ -16791,7 +16791,7 @@
         <v>15</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>52</v>
@@ -16809,7 +16809,7 @@
         <v>30</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R169" s="3" t="s">
         <v>55</v>
@@ -16832,16 +16832,16 @@
         <v>60</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G170" s="3">
         <v>30</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I170" s="3">
         <v>10.45</v>
@@ -16850,7 +16850,7 @@
         <v>15</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>52</v>
@@ -16868,7 +16868,7 @@
         <v>30</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R170" s="3" t="s">
         <v>55</v>
@@ -16891,16 +16891,16 @@
         <v>60</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G171" s="3">
         <v>30</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I171" s="3">
         <v>10.45</v>
@@ -16909,7 +16909,7 @@
         <v>15</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>52</v>
@@ -16927,7 +16927,7 @@
         <v>30</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R171" s="3" t="s">
         <v>55</v>
@@ -16950,16 +16950,16 @@
         <v>60</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G172" s="3">
         <v>30</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I172" s="3">
         <v>10.45</v>
@@ -16968,7 +16968,7 @@
         <v>15</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>52</v>
@@ -16986,7 +16986,7 @@
         <v>30</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R172" s="3" t="s">
         <v>55</v>
@@ -17009,16 +17009,16 @@
         <v>60</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G173" s="3">
         <v>30</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I173" s="3">
         <v>10.45</v>
@@ -17027,7 +17027,7 @@
         <v>15</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>52</v>
@@ -17045,7 +17045,7 @@
         <v>30</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R173" s="3" t="s">
         <v>55</v>
@@ -17068,16 +17068,16 @@
         <v>60</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G174" s="3">
         <v>30</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I174" s="3">
         <v>10.45</v>
@@ -17086,7 +17086,7 @@
         <v>15</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>52</v>
@@ -17104,7 +17104,7 @@
         <v>30</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R174" s="3" t="s">
         <v>55</v>
@@ -17127,16 +17127,16 @@
         <v>60</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G175" s="3">
         <v>30</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I175" s="3">
         <v>10.45</v>
@@ -17145,7 +17145,7 @@
         <v>15</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>52</v>
@@ -17163,7 +17163,7 @@
         <v>30</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R175" s="3" t="s">
         <v>55</v>
@@ -17186,16 +17186,16 @@
         <v>60</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G176" s="3">
         <v>30</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I176" s="3">
         <v>10.45</v>
@@ -17204,7 +17204,7 @@
         <v>15</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>52</v>
@@ -17222,7 +17222,7 @@
         <v>30</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R176" s="3" t="s">
         <v>55</v>
@@ -17245,16 +17245,16 @@
         <v>60</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G177" s="3">
         <v>30</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I177" s="3">
         <v>10.45</v>
@@ -17263,7 +17263,7 @@
         <v>15</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>52</v>
@@ -17281,7 +17281,7 @@
         <v>30</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R177" s="3" t="s">
         <v>55</v>
@@ -17304,16 +17304,16 @@
         <v>60</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G178" s="3">
         <v>30</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I178" s="3">
         <v>10.45</v>
@@ -17322,7 +17322,7 @@
         <v>15</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>52</v>
@@ -17340,7 +17340,7 @@
         <v>30</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R178" s="3" t="s">
         <v>55</v>
@@ -17363,16 +17363,16 @@
         <v>60</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G179" s="3">
         <v>30</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I179" s="3">
         <v>10.45</v>
@@ -17381,7 +17381,7 @@
         <v>15</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>52</v>
@@ -17399,7 +17399,7 @@
         <v>30</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R179" s="3" t="s">
         <v>55</v>
@@ -17422,16 +17422,16 @@
         <v>60</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G180" s="3">
         <v>30</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I180" s="3">
         <v>10.45</v>
@@ -17440,7 +17440,7 @@
         <v>15</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>52</v>
@@ -17458,7 +17458,7 @@
         <v>30</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R180" s="3" t="s">
         <v>55</v>
@@ -17481,16 +17481,16 @@
         <v>60</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G181" s="3">
         <v>30</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I181" s="3">
         <v>10.45</v>
@@ -17499,7 +17499,7 @@
         <v>15</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>52</v>
@@ -17517,7 +17517,7 @@
         <v>30</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R181" s="3" t="s">
         <v>55</v>
@@ -17540,16 +17540,16 @@
         <v>60</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G182" s="3">
         <v>30</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I182" s="3">
         <v>10.45</v>
@@ -17558,7 +17558,7 @@
         <v>15</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>52</v>
@@ -17576,7 +17576,7 @@
         <v>30</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R182" s="3" t="s">
         <v>55</v>
@@ -17599,16 +17599,16 @@
         <v>60</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G183" s="3">
         <v>30</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I183" s="3">
         <v>10.45</v>
@@ -17617,7 +17617,7 @@
         <v>15</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>52</v>
@@ -17635,7 +17635,7 @@
         <v>30</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R183" s="3" t="s">
         <v>55</v>
@@ -17658,16 +17658,16 @@
         <v>60</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G184" s="3">
         <v>30</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I184" s="3">
         <v>10.45</v>
@@ -17676,7 +17676,7 @@
         <v>15</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>52</v>
@@ -17694,7 +17694,7 @@
         <v>30</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R184" s="3" t="s">
         <v>55</v>
@@ -17717,16 +17717,16 @@
         <v>60</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G185" s="3">
         <v>30</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I185" s="3">
         <v>10.45</v>
@@ -17735,7 +17735,7 @@
         <v>15</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>52</v>
@@ -17753,7 +17753,7 @@
         <v>30</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R185" s="3" t="s">
         <v>55</v>
@@ -17776,16 +17776,16 @@
         <v>60</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G186" s="3">
         <v>30</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I186" s="3">
         <v>10.45</v>
@@ -17794,7 +17794,7 @@
         <v>15</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>52</v>
@@ -17812,7 +17812,7 @@
         <v>30</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R186" s="3" t="s">
         <v>55</v>
@@ -17835,16 +17835,16 @@
         <v>60</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G187" s="3">
         <v>30</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I187" s="3">
         <v>10.45</v>
@@ -17853,7 +17853,7 @@
         <v>15</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>52</v>
@@ -17871,7 +17871,7 @@
         <v>30</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R187" s="3" t="s">
         <v>55</v>
@@ -17894,16 +17894,16 @@
         <v>60</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G188" s="3">
         <v>30</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I188" s="3">
         <v>10.45</v>
@@ -17912,7 +17912,7 @@
         <v>15</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>52</v>
@@ -17930,7 +17930,7 @@
         <v>30</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R188" s="3" t="s">
         <v>55</v>
@@ -17953,16 +17953,16 @@
         <v>60</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G189" s="3">
         <v>30</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I189" s="3">
         <v>10.45</v>
@@ -17971,7 +17971,7 @@
         <v>15</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>52</v>
@@ -17989,7 +17989,7 @@
         <v>30</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R189" s="3" t="s">
         <v>55</v>
@@ -18012,16 +18012,16 @@
         <v>60</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G190" s="3">
         <v>30</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I190" s="3">
         <v>10.45</v>
@@ -18030,7 +18030,7 @@
         <v>15</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>52</v>
@@ -18048,7 +18048,7 @@
         <v>30</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>55</v>
@@ -18071,16 +18071,16 @@
         <v>60</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G191" s="3">
         <v>30</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I191" s="3">
         <v>10.45</v>
@@ -18089,7 +18089,7 @@
         <v>15</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>52</v>
@@ -18107,7 +18107,7 @@
         <v>30</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R191" s="3" t="s">
         <v>55</v>
@@ -18130,16 +18130,16 @@
         <v>60</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G192" s="3">
         <v>30</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I192" s="3">
         <v>10.45</v>
@@ -18148,7 +18148,7 @@
         <v>15</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>52</v>
@@ -18166,7 +18166,7 @@
         <v>30</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R192" s="3" t="s">
         <v>55</v>
@@ -18189,16 +18189,16 @@
         <v>60</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G193" s="3">
         <v>30</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I193" s="3">
         <v>10.45</v>
@@ -18207,7 +18207,7 @@
         <v>15</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>52</v>
@@ -18225,7 +18225,7 @@
         <v>30</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R193" s="3" t="s">
         <v>55</v>
@@ -18248,16 +18248,16 @@
         <v>60</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G194" s="3">
         <v>30</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I194" s="3">
         <v>10.45</v>
@@ -18266,7 +18266,7 @@
         <v>15</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>52</v>
@@ -18284,7 +18284,7 @@
         <v>30</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R194" s="3" t="s">
         <v>55</v>
@@ -18307,16 +18307,16 @@
         <v>60</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G195" s="3">
         <v>30</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I195" s="3">
         <v>10.45</v>
@@ -18325,7 +18325,7 @@
         <v>15</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>52</v>
@@ -18343,7 +18343,7 @@
         <v>30</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R195" s="3" t="s">
         <v>55</v>
@@ -18366,16 +18366,16 @@
         <v>60</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G196" s="3">
         <v>30</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I196" s="3">
         <v>10.45</v>
@@ -18384,7 +18384,7 @@
         <v>15</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>52</v>
@@ -18402,7 +18402,7 @@
         <v>30</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R196" s="3" t="s">
         <v>55</v>
@@ -18425,16 +18425,16 @@
         <v>60</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G197" s="3">
         <v>30</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I197" s="3">
         <v>10.45</v>
@@ -18443,7 +18443,7 @@
         <v>15</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>52</v>
@@ -18461,7 +18461,7 @@
         <v>30</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R197" s="3" t="s">
         <v>55</v>
@@ -18484,16 +18484,16 @@
         <v>60</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G198" s="3">
         <v>30</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I198" s="3">
         <v>10.45</v>
@@ -18502,7 +18502,7 @@
         <v>15</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>52</v>
@@ -18520,7 +18520,7 @@
         <v>30</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R198" s="3" t="s">
         <v>55</v>
@@ -18543,16 +18543,16 @@
         <v>60</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G199" s="3">
         <v>30</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I199" s="3">
         <v>10.45</v>
@@ -18561,7 +18561,7 @@
         <v>15</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>52</v>
@@ -18579,7 +18579,7 @@
         <v>30</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R199" s="3" t="s">
         <v>55</v>
@@ -18602,16 +18602,16 @@
         <v>60</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G200" s="3">
         <v>30</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I200" s="3">
         <v>10.45</v>
@@ -18620,7 +18620,7 @@
         <v>15</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>52</v>
@@ -18638,7 +18638,7 @@
         <v>30</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R200" s="3" t="s">
         <v>55</v>
@@ -18661,16 +18661,16 @@
         <v>60</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G201" s="3">
         <v>30</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I201" s="3">
         <v>10.45</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>52</v>
@@ -18697,7 +18697,7 @@
         <v>30</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R201" s="3" t="s">
         <v>55</v>
@@ -18720,16 +18720,16 @@
         <v>60</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G202" s="3">
         <v>30</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I202" s="3">
         <v>10.45</v>
@@ -18738,7 +18738,7 @@
         <v>15</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>52</v>
@@ -18756,7 +18756,7 @@
         <v>30</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R202" s="3" t="s">
         <v>55</v>
@@ -18779,16 +18779,16 @@
         <v>60</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G203" s="3">
         <v>30</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I203" s="3">
         <v>10.45</v>
@@ -18797,7 +18797,7 @@
         <v>15</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>52</v>
@@ -18815,7 +18815,7 @@
         <v>30</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R203" s="3" t="s">
         <v>55</v>
@@ -18838,16 +18838,16 @@
         <v>60</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G204" s="3">
         <v>30</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I204" s="3">
         <v>10.45</v>
@@ -18856,7 +18856,7 @@
         <v>15</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>52</v>
@@ -18874,7 +18874,7 @@
         <v>30</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R204" s="3" t="s">
         <v>55</v>
@@ -18897,16 +18897,16 @@
         <v>60</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G205" s="3">
         <v>30</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I205" s="3">
         <v>10.45</v>
@@ -18915,7 +18915,7 @@
         <v>15</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>52</v>
@@ -18933,7 +18933,7 @@
         <v>30</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R205" s="3" t="s">
         <v>55</v>
@@ -18956,16 +18956,16 @@
         <v>60</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G206" s="3">
         <v>30</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I206" s="3">
         <v>10.45</v>
@@ -18974,7 +18974,7 @@
         <v>15</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>52</v>
@@ -18992,7 +18992,7 @@
         <v>30</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R206" s="3" t="s">
         <v>55</v>
@@ -19015,16 +19015,16 @@
         <v>60</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G207" s="3">
         <v>30</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I207" s="3">
         <v>10.45</v>
@@ -19033,7 +19033,7 @@
         <v>15</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>52</v>
@@ -19051,7 +19051,7 @@
         <v>30</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R207" s="3" t="s">
         <v>55</v>
@@ -19074,16 +19074,16 @@
         <v>60</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G208" s="3">
         <v>30</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I208" s="3">
         <v>10.45</v>
@@ -19092,7 +19092,7 @@
         <v>15</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>52</v>
@@ -19110,7 +19110,7 @@
         <v>30</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R208" s="3" t="s">
         <v>55</v>
@@ -19133,16 +19133,16 @@
         <v>60</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G209" s="3">
         <v>30</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I209" s="3">
         <v>10.45</v>
@@ -19151,7 +19151,7 @@
         <v>15</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>52</v>
@@ -19169,7 +19169,7 @@
         <v>30</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R209" s="3" t="s">
         <v>55</v>
@@ -19192,16 +19192,16 @@
         <v>60</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G210" s="3">
         <v>30</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I210" s="3">
         <v>10.45</v>
@@ -19210,7 +19210,7 @@
         <v>15</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>52</v>
@@ -19228,7 +19228,7 @@
         <v>30</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R210" s="3" t="s">
         <v>55</v>
@@ -19251,16 +19251,16 @@
         <v>60</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G211" s="3">
         <v>30</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I211" s="3">
         <v>10.45</v>
@@ -19269,7 +19269,7 @@
         <v>15</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>52</v>
@@ -19287,7 +19287,7 @@
         <v>30</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R211" s="3" t="s">
         <v>55</v>
@@ -19310,16 +19310,16 @@
         <v>60</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G212" s="3">
         <v>30</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I212" s="3">
         <v>10.45</v>
@@ -19328,7 +19328,7 @@
         <v>15</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>52</v>
@@ -19346,7 +19346,7 @@
         <v>30</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R212" s="3" t="s">
         <v>55</v>
@@ -19369,16 +19369,16 @@
         <v>60</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G213" s="3">
         <v>30</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I213" s="3">
         <v>10.45</v>
@@ -19387,7 +19387,7 @@
         <v>15</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>52</v>
@@ -19405,7 +19405,7 @@
         <v>30</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R213" s="3" t="s">
         <v>55</v>
@@ -19428,16 +19428,16 @@
         <v>60</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G214" s="3">
         <v>30</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I214" s="3">
         <v>10.45</v>
@@ -19446,7 +19446,7 @@
         <v>15</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L214" s="3" t="s">
         <v>52</v>
@@ -19464,7 +19464,7 @@
         <v>30</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R214" s="3" t="s">
         <v>55</v>
@@ -19487,16 +19487,16 @@
         <v>60</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G215" s="3">
         <v>30</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I215" s="3">
         <v>10.45</v>
@@ -19505,7 +19505,7 @@
         <v>15</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>52</v>
@@ -19523,7 +19523,7 @@
         <v>30</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R215" s="3" t="s">
         <v>55</v>
@@ -19546,16 +19546,16 @@
         <v>60</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G216" s="3">
         <v>30</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I216" s="3">
         <v>10.45</v>
@@ -19564,7 +19564,7 @@
         <v>15</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>52</v>
@@ -19582,7 +19582,7 @@
         <v>30</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R216" s="3" t="s">
         <v>55</v>
@@ -19605,16 +19605,16 @@
         <v>60</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G217" s="3">
         <v>30</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I217" s="3">
         <v>10.45</v>
@@ -19623,7 +19623,7 @@
         <v>15</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>52</v>
@@ -19641,7 +19641,7 @@
         <v>30</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R217" s="3" t="s">
         <v>55</v>
@@ -19664,16 +19664,16 @@
         <v>60</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G218" s="3">
         <v>30</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I218" s="3">
         <v>10.45</v>
@@ -19682,7 +19682,7 @@
         <v>15</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>52</v>
@@ -19700,7 +19700,7 @@
         <v>30</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R218" s="3" t="s">
         <v>55</v>
@@ -19723,16 +19723,16 @@
         <v>60</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G219" s="3">
         <v>30</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I219" s="3">
         <v>10.45</v>
@@ -19741,7 +19741,7 @@
         <v>15</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>52</v>
@@ -19759,7 +19759,7 @@
         <v>30</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R219" s="3" t="s">
         <v>55</v>
@@ -19782,16 +19782,16 @@
         <v>60</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G220" s="3">
         <v>30</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I220" s="3">
         <v>10.45</v>
@@ -19800,7 +19800,7 @@
         <v>15</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>52</v>
@@ -19818,7 +19818,7 @@
         <v>30</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R220" s="3" t="s">
         <v>55</v>
@@ -19841,16 +19841,16 @@
         <v>60</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G221" s="3">
         <v>30</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I221" s="3">
         <v>10.45</v>
@@ -19859,7 +19859,7 @@
         <v>15</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>52</v>
@@ -19877,7 +19877,7 @@
         <v>30</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R221" s="3" t="s">
         <v>55</v>
@@ -19900,16 +19900,16 @@
         <v>60</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G222" s="3">
         <v>30</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I222" s="3">
         <v>10.45</v>
@@ -19918,7 +19918,7 @@
         <v>15</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L222" s="3" t="s">
         <v>52</v>
@@ -19936,7 +19936,7 @@
         <v>30</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R222" s="3" t="s">
         <v>55</v>
@@ -19959,16 +19959,16 @@
         <v>60</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G223" s="3">
         <v>30</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I223" s="3">
         <v>10.45</v>
@@ -19977,7 +19977,7 @@
         <v>15</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L223" s="3" t="s">
         <v>52</v>
@@ -19995,7 +19995,7 @@
         <v>30</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R223" s="3" t="s">
         <v>55</v>
@@ -20018,16 +20018,16 @@
         <v>60</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G224" s="3">
         <v>30</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I224" s="3">
         <v>10.45</v>
@@ -20036,7 +20036,7 @@
         <v>15</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>52</v>
@@ -20054,7 +20054,7 @@
         <v>30</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R224" s="3" t="s">
         <v>55</v>
@@ -20077,16 +20077,16 @@
         <v>60</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G225" s="3">
         <v>30</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I225" s="3">
         <v>10.45</v>
@@ -20095,7 +20095,7 @@
         <v>15</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L225" s="3" t="s">
         <v>52</v>
@@ -20113,7 +20113,7 @@
         <v>30</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R225" s="3" t="s">
         <v>55</v>
@@ -20136,16 +20136,16 @@
         <v>60</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G226" s="3">
         <v>30</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I226" s="3">
         <v>10.45</v>
@@ -20154,7 +20154,7 @@
         <v>15</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>52</v>
@@ -20172,7 +20172,7 @@
         <v>30</v>
       </c>
       <c r="Q226" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R226" s="3" t="s">
         <v>55</v>
@@ -20195,16 +20195,16 @@
         <v>60</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G227" s="3">
         <v>30</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I227" s="3">
         <v>10.45</v>
@@ -20213,7 +20213,7 @@
         <v>15</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L227" s="3" t="s">
         <v>52</v>
@@ -20231,7 +20231,7 @@
         <v>30</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R227" s="3" t="s">
         <v>55</v>
@@ -20254,16 +20254,16 @@
         <v>60</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G228" s="3">
         <v>30</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I228" s="3">
         <v>10.45</v>
@@ -20272,7 +20272,7 @@
         <v>15</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L228" s="3" t="s">
         <v>52</v>
@@ -20290,7 +20290,7 @@
         <v>30</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R228" s="3" t="s">
         <v>55</v>
@@ -20313,16 +20313,16 @@
         <v>60</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G229" s="3">
         <v>30</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I229" s="3">
         <v>10.45</v>
@@ -20331,7 +20331,7 @@
         <v>15</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L229" s="3" t="s">
         <v>52</v>
@@ -20349,7 +20349,7 @@
         <v>30</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R229" s="3" t="s">
         <v>55</v>
@@ -20372,16 +20372,16 @@
         <v>60</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G230" s="3">
         <v>30</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I230" s="3">
         <v>10.45</v>
@@ -20390,7 +20390,7 @@
         <v>15</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L230" s="3" t="s">
         <v>52</v>
@@ -20408,7 +20408,7 @@
         <v>30</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R230" s="3" t="s">
         <v>55</v>
@@ -20431,16 +20431,16 @@
         <v>60</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G231" s="3">
         <v>30</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I231" s="3">
         <v>10.45</v>
@@ -20449,7 +20449,7 @@
         <v>15</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L231" s="3" t="s">
         <v>52</v>
@@ -20467,7 +20467,7 @@
         <v>30</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R231" s="3" t="s">
         <v>55</v>
@@ -20490,16 +20490,16 @@
         <v>60</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G232" s="3">
         <v>30</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I232" s="3">
         <v>10.45</v>
@@ -20508,7 +20508,7 @@
         <v>15</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L232" s="3" t="s">
         <v>52</v>
@@ -20526,7 +20526,7 @@
         <v>30</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R232" s="3" t="s">
         <v>55</v>
@@ -20549,16 +20549,16 @@
         <v>60</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G233" s="3">
         <v>30</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I233" s="3">
         <v>10.45</v>
@@ -20567,7 +20567,7 @@
         <v>15</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L233" s="3" t="s">
         <v>52</v>
@@ -20585,7 +20585,7 @@
         <v>30</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R233" s="3" t="s">
         <v>55</v>
@@ -20608,16 +20608,16 @@
         <v>60</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G234" s="3">
         <v>30</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I234" s="3">
         <v>10.45</v>
@@ -20626,7 +20626,7 @@
         <v>15</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L234" s="3" t="s">
         <v>52</v>
@@ -20644,7 +20644,7 @@
         <v>30</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R234" s="3" t="s">
         <v>55</v>
